--- a/scripts/gbif/src/FR/ListaMacrofitas.xlsx
+++ b/scripts/gbif/src/FR/ListaMacrofitas.xlsx
@@ -11,398 +11,382 @@
     <sheet name="livros e artigos para tese" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="1096">
-  <si>
-    <t xml:space="preserve">Dicliptera ciliaris Juss.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dyschoriste maranhonis Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hygrophila costata Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hygrophila guianensis Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hygrophila helodes Nees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justicia comata (L.) Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justicia aequilabris (Nees) Lindau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justicia laevilinguis (Nees) Lindau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justia pectoralis Jacq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nelsonia brunelloides (Lam.) Kuntz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruellia bahiensis (Nees) Morong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruellia paniculata L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesuvium portulacastrum (L.) L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus andrieuxii (Hook et Arn.) Smal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus argentinensis Rataj.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus aschersonianus Graebn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus bolivianus (Rusby) Hom-Niels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus cordifolius (L.) Griseb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus floribundus (Seub.) Seub.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus glandulosus Rataj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus grandiflorus (Cham. &amp; Schltdl.) Micheli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus grisebachii Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus lanceolatus Rataj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus longipetalus Micheli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus longiscapus Arech.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus macrophyllus (Kunth) Micheli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus palaefolius (Nees &amp; Mart.) J.F. Macbr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus paniculatus Micheli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus pubescens (Mart.) Seub. and Warm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus ranunculoides (L.) Engelm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus reticulatus R.R. Haynes and Holm-Niels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus scaber Rataj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus subalatus (Mart.) Griseb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus tenellus (Mart. ex Schult. &amp; Schult. f.) Buchenau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinodorus teretoscapus R.R.Haynes &amp; Holm-Niels. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helanthium tenellum (Mart.) Britton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocleys martii Seub. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocleys nymphoides (Willd.) Buchenau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocleys parviflora Seub.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limnocharis flava (L.) Buchenau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limnocharis laforestii Griseb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittaria guayanensis Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittaria lancifolia L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittaria montevidensis Cham. &amp; Schltdl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittaria planitiana G. Agostini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittaria rhombifolia Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagittaria sprucei Micheli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alstroemeria isabellana Herb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera aquatica (Parodi) Chodat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera brasiliana (L.) Kuntze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera paronychioides A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera philoxeroides (Mart.) Griseb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera pilosa Moq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternanthera tenella Colla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaranthus spinosus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaranthus viridis L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atriplex montevidensis Spr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atriplex undulata (Moq.) Dietr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blutaparon portulacoides (A. St.-Hil.) Mears </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamissoa altissima (Jacq.) Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenopodium ambrosioides L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomphrena demissa Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomphrena elegans Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebanthe paniculata Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfaffia glomerata (Spreng.) Pedersen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfaffia pulverulenta (Mart.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfaffia iresinoides (Kunth) Spreng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salicornia ambigua Michx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salicornia gaudichaudiana Moq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crinum americanum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyppeastrum angustifolium Pax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schinus terenbinthifolius Raddi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centella asiatica (L.) Urban </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eryngium ebracteatum Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eryngium eburneum Decne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eryngium ekmanii H. Wolff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eryngium pandanifolium Cham. &amp; Schltdl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotyle ranunculoides L. f. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotyle verticillata Thunb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilaeopsis attenuata (Hook. &amp; Arn.) Fernald </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilaeopsis brasiliensis (Glaz.) Affolter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilaeopsis carolinensis J.M. Coult. &amp; Rose </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilaeopsis tenuis A. W. Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allamanda cathartica L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allamanda nobilis T. Moore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ditassa hastata Decne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandevilla clandestina J.F. Morales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandevilla hirsuta (A.Rich.) K. Schum. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandevilla tenuifolia (Mikan) Woodson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odontadenia nitida (Vahl) Müll. Arg. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxypetalum pachyglossum Decne.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxypetalum tubatum Malme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhabdadenia biflora (Jacq.) Müll. Arg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhabdadenia madida (Vell.) Miers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhabdanenia pohlii Mull. Arg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alocasia macrorrhiza (L.) Schott.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colocasia esculenta (L.) Schott.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dracontium longipes Engl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landoltia punctata (G. Mey.) Les &amp; D.J. Crawford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemna aequinoctialis Welw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemna gibba L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemna minuta L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lemna valdiviana Phil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrichardia arborescens (L.) Schott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrichiardia linifera (Arruda) Schott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philodendron brasiliense Engl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philodendron rudgeanum Schott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pistia stratioides L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spirodela intermedia W. Koch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urospatha sagittifolia (Rudge) Schott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolffia arrhiza (L.) Horkel ex Wimm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolffia brasiliensis Wedd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolffia columbiana H. Karst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolffiella lingulata (Hegelm.) Hegelm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wollffiella oblonga (Phil.) Hegelm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolffiella welwitschii (Hegelm.) Monod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xanthosoma aristiguietae (Bunt.) Madison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zantedeschia aethiopica (L.) Spr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotyle bonariensis Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotyle leucocephala Cham. &amp; Schltdl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrolotyle pussilla A. Rich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotyle ranunculoides L.f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocotyle verticillata Thumb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bactris maraja Mart. </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
+  <si>
+    <t>Dicliptera ciliaris Juss.</t>
+  </si>
+  <si>
+    <t>Dyschoriste maranhonis Kuntze</t>
+  </si>
+  <si>
+    <t>Hygrophila costata Nees</t>
+  </si>
+  <si>
+    <t>Hygrophila guianensis Nees</t>
+  </si>
+  <si>
+    <t>Hygrophila helodes Nees </t>
+  </si>
+  <si>
+    <t>Justicia comata (L.) Lam.</t>
+  </si>
+  <si>
+    <t>Justicia aequilabris (Nees) Lindau</t>
+  </si>
+  <si>
+    <t>Justicia laevilinguis (Nees) Lindau</t>
+  </si>
+  <si>
+    <t>Nelsonia brunelloides (Lam.) Kuntz</t>
+  </si>
+  <si>
+    <t>Ruellia bahiensis (Nees) Morong</t>
+  </si>
+  <si>
+    <t>Ruellia paniculata L. </t>
+  </si>
+  <si>
+    <t>Sesuvium portulacastrum (L.) L. </t>
+  </si>
+  <si>
+    <t>Echinodorus andrieuxii (Hook et Arn.) Smal</t>
+  </si>
+  <si>
+    <t>Echinodorus argentinensis Rataj.</t>
+  </si>
+  <si>
+    <t>Echinodorus aschersonianus Graebn.</t>
+  </si>
+  <si>
+    <t>Echinodorus bolivianus (Rusby) Hom-Niels</t>
+  </si>
+  <si>
+    <t>Echinodorus cordifolius (L.) Griseb. </t>
+  </si>
+  <si>
+    <t>Echinodorus floribundus (Seub.) Seub.</t>
+  </si>
+  <si>
+    <t>Echinodorus glandulosus Rataj</t>
+  </si>
+  <si>
+    <t>Echinodorus grandiflorus (Cham. &amp; Schltdl.) Micheli</t>
+  </si>
+  <si>
+    <t>Echinodorus grisebachii Small</t>
+  </si>
+  <si>
+    <t>Echinodorus lanceolatus Rataj</t>
+  </si>
+  <si>
+    <t>Echinodorus longipetalus Micheli</t>
+  </si>
+  <si>
+    <t>Echinodorus longiscapus Arech.</t>
+  </si>
+  <si>
+    <t>Echinodorus macrophyllus (Kunth) Micheli </t>
+  </si>
+  <si>
+    <t>Echinodorus palaefolius (Nees &amp; Mart.) J.F. Macbr. </t>
+  </si>
+  <si>
+    <t>Echinodorus paniculatus Micheli</t>
+  </si>
+  <si>
+    <t>Echinodorus pubescens (Mart.) Seub. and Warm.</t>
+  </si>
+  <si>
+    <t>Echinodorus ranunculoides (L.) Engelm.</t>
+  </si>
+  <si>
+    <t>Echinodorus reticulatus R.R. Haynes and Holm-Niels.</t>
+  </si>
+  <si>
+    <t>Echinodorus scaber Rataj</t>
+  </si>
+  <si>
+    <t>Echinodorus subalatus (Mart.) Griseb.</t>
+  </si>
+  <si>
+    <t>Echinodorus tenellus (Mart. ex Schult. &amp; Schult. f.) Buchenau </t>
+  </si>
+  <si>
+    <t>Echinodorus teretoscapus R.R.Haynes &amp; Holm-Niels. </t>
+  </si>
+  <si>
+    <t>Helanthium tenellum (Mart.) Britton</t>
+  </si>
+  <si>
+    <t>Hydrocleys martii Seub. </t>
+  </si>
+  <si>
+    <t>Hydrocleys nymphoides (Willd.) Buchenau</t>
+  </si>
+  <si>
+    <t>Hydrocleys parviflora Seub.</t>
+  </si>
+  <si>
+    <t>Limnocharis flava (L.) Buchenau</t>
+  </si>
+  <si>
+    <t>Limnocharis laforestii Griseb. </t>
+  </si>
+  <si>
+    <t>Sagittaria guayanensis Kunth </t>
+  </si>
+  <si>
+    <t>Sagittaria lancifolia L. </t>
+  </si>
+  <si>
+    <t>Sagittaria montevidensis Cham. &amp; Schltdl.</t>
+  </si>
+  <si>
+    <t>Sagittaria planitiana G. Agostini</t>
+  </si>
+  <si>
+    <t>Sagittaria rhombifolia Cham.</t>
+  </si>
+  <si>
+    <t>Sagittaria sprucei Micheli</t>
+  </si>
+  <si>
+    <t>Alstroemeria isabellana Herb. </t>
+  </si>
+  <si>
+    <t>Alternanthera aquatica (Parodi) Chodat </t>
+  </si>
+  <si>
+    <t>Alternanthera brasiliana (L.) Kuntze </t>
+  </si>
+  <si>
+    <t>Alternanthera paronychioides A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Alternanthera philoxeroides (Mart.) Griseb.</t>
+  </si>
+  <si>
+    <t>Alternanthera pilosa Moq.</t>
+  </si>
+  <si>
+    <t>Alternanthera tenella Colla</t>
+  </si>
+  <si>
+    <t>Amaranthus spinosus L.</t>
+  </si>
+  <si>
+    <t>Amaranthus viridis L.</t>
+  </si>
+  <si>
+    <t>Atriplex montevidensis Spr.</t>
+  </si>
+  <si>
+    <t>Atriplex undulata (Moq.) Dietr.</t>
+  </si>
+  <si>
+    <t>Blutaparon portulacoides (A. St.-Hil.) Mears </t>
+  </si>
+  <si>
+    <t>Chamissoa altissima (Jacq.) Kunth</t>
+  </si>
+  <si>
+    <t>Chenopodium ambrosioides L. </t>
+  </si>
+  <si>
+    <t>Gomphrena demissa Mart.</t>
+  </si>
+  <si>
+    <t>Gomphrena elegans Mart.</t>
+  </si>
+  <si>
+    <t>Hebanthe paniculata Mart.</t>
+  </si>
+  <si>
+    <t>Pfaffia glomerata (Spreng.) Pedersen</t>
+  </si>
+  <si>
+    <t>Pfaffia pulverulenta (Mart.) Kuntze</t>
+  </si>
+  <si>
+    <t>Pfaffia iresinoides (Kunth) Spreng.</t>
+  </si>
+  <si>
+    <t>Salicornia ambigua Michx.</t>
+  </si>
+  <si>
+    <t>Salicornia gaudichaudiana Moq.</t>
+  </si>
+  <si>
+    <t>Crinum americanum L.</t>
+  </si>
+  <si>
+    <t>Hyppeastrum angustifolium Pax</t>
+  </si>
+  <si>
+    <t>Schinus terenbinthifolius Raddi.</t>
+  </si>
+  <si>
+    <t>Centella asiatica (L.) Urban </t>
+  </si>
+  <si>
+    <t>Eryngium ebracteatum Lam.</t>
+  </si>
+  <si>
+    <t>Eryngium eburneum Decne.</t>
+  </si>
+  <si>
+    <t>Eryngium ekmanii H. Wolff</t>
+  </si>
+  <si>
+    <t>Eryngium pandanifolium Cham. &amp; Schltdl. </t>
+  </si>
+  <si>
+    <t>Hydrocotyle ranunculoides L. f. </t>
+  </si>
+  <si>
+    <t>Hydrocotyle verticillata Thunb. </t>
+  </si>
+  <si>
+    <t>Lilaeopsis attenuata (Hook. &amp; Arn.) Fernald </t>
+  </si>
+  <si>
+    <t>Lilaeopsis brasiliensis (Glaz.) Affolter</t>
+  </si>
+  <si>
+    <t>Lilaeopsis carolinensis J.M. Coult. &amp; Rose </t>
+  </si>
+  <si>
+    <t>Lilaeopsis tenuis A. W. Hill</t>
+  </si>
+  <si>
+    <t>Allamanda cathartica L.</t>
+  </si>
+  <si>
+    <t>Allamanda nobilis T. Moore</t>
+  </si>
+  <si>
+    <t>Ditassa hastata Decne.</t>
+  </si>
+  <si>
+    <t>Mandevilla clandestina J.F. Morales</t>
+  </si>
+  <si>
+    <t>Mandevilla hirsuta (A.Rich.) K. Schum. </t>
+  </si>
+  <si>
+    <t>Mandevilla tenuifolia (Mikan) Woodson</t>
+  </si>
+  <si>
+    <t>Odontadenia nitida (Vahl) Müll. Arg. </t>
+  </si>
+  <si>
+    <t>Oxypetalum pachyglossum Decne.</t>
+  </si>
+  <si>
+    <t>Oxypetalum tubatum Malme </t>
+  </si>
+  <si>
+    <t>Rhabdadenia biflora (Jacq.) Müll. Arg.</t>
+  </si>
+  <si>
+    <t>Rhabdadenia madida (Vell.) Miers </t>
+  </si>
+  <si>
+    <t>Rhabdanenia pohlii Mull. Arg.</t>
+  </si>
+  <si>
+    <t>Alocasia macrorrhiza (L.) Schott.</t>
+  </si>
+  <si>
+    <t>Colocasia esculenta (L.) Schott.</t>
+  </si>
+  <si>
+    <t>Dracontium longipes Engl. </t>
+  </si>
+  <si>
+    <t>Landoltia punctata (G. Mey.) Les &amp; D.J. Crawford</t>
+  </si>
+  <si>
+    <t>Lemna aequinoctialis Welw.</t>
+  </si>
+  <si>
+    <t>Lemna gibba L.</t>
+  </si>
+  <si>
+    <t>Lemna minuta L. </t>
+  </si>
+  <si>
+    <t>Lemna valdiviana Phil. </t>
+  </si>
+  <si>
+    <t>Montrichardia arborescens (L.) Schott</t>
+  </si>
+  <si>
+    <t>Montrichiardia linifera (Arruda) Schott</t>
+  </si>
+  <si>
+    <t>Philodendron brasiliense Engl.</t>
+  </si>
+  <si>
+    <t>Philodendron rudgeanum Schott</t>
+  </si>
+  <si>
+    <t>Pistia stratioides L.</t>
+  </si>
+  <si>
+    <t>Spirodela intermedia W. Koch</t>
+  </si>
+  <si>
+    <t>Urospatha sagittifolia (Rudge) Schott</t>
+  </si>
+  <si>
+    <t>Wolffia arrhiza (L.) Horkel ex Wimm.</t>
+  </si>
+  <si>
+    <t>Wolffia brasiliensis Wedd. </t>
+  </si>
+  <si>
+    <t>Wolffia columbiana H. Karst.</t>
+  </si>
+  <si>
+    <t>Wolffiella lingulata (Hegelm.) Hegelm.</t>
+  </si>
+  <si>
+    <t>Wollffiella oblonga (Phil.) Hegelm. </t>
+  </si>
+  <si>
+    <t>Wolffiella welwitschii (Hegelm.) Monod</t>
+  </si>
+  <si>
+    <t>Xanthosoma aristiguietae (Bunt.) Madison</t>
+  </si>
+  <si>
+    <t>Zantedeschia aethiopica (L.) Spr.</t>
+  </si>
+  <si>
+    <t>Hydrocotyle bonariensis Lam. </t>
+  </si>
+  <si>
+    <t>Hydrocotyle leucocephala Cham. &amp; Schltdl. </t>
+  </si>
+  <si>
+    <t>Hydrolotyle pussilla A. Rich.</t>
+  </si>
+  <si>
+    <t>Hydrocotyle ranunculoides L.f.</t>
+  </si>
+  <si>
+    <t>Hydrocotyle verticillata Thumb. </t>
+  </si>
+  <si>
+    <t>Bactris maraja Mart. </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Mauritia carana</t>
     </r>
     <r>
@@ -416,492 +400,484 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mauritiella armata (Mart.) Burret </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristolochia macroura Gomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roullinia montevidensis (Spr.) Malme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acanthospermum australe (Loef.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acanthospermum hispidum DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achyrocline alata (Kunth) DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acilepdopsis echitifolia (Mart. Ex DC.) H. Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acmella uliginosa (Sw.) Cass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenostemma brasilianum (Pers.) Cass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageratum conyzoides L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambrosia artemisiaefolia L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aster squamatus (Spreng) Hier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baccharis microcephala Baker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baccharis penningtonii Heering.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baccharis spicata (Lam.) Baill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baccharis usteri Heering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baccharidastrum triplinerve (Less.) Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrosoa betonicaeformis (DC.) R.M.King &amp; H.Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bidens laevis (L.) B.S.P. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blainvillea dichotoma (Murray) Stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centratherum punctatum Cass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calea marginata S. F. Blake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campuloclinium purpurascens (Sch. Bip.) R.M. King &amp; H. Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaptalia graminifolia (Dusen) Cabr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrysolaena platensis (Spreng.) H. Robins. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clibadium amanii (Balb.) Sch. Bip. ex Baker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conyza bonariensis (L.) Cronquist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conyza sumatrensis (Retz.) E.Walker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotula coronopifolia L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delilia biflora (L.) Kuntze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipta megapotamica (Spreng.) Sch.Bip. ex S.F.Blake </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipta prostrata (L.) L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egletes viscosa (L.) Less. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elephantopus mollis Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilia coccinea (Sims) G. Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emilia sonchifolia (L.) DC. ex Wight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enydra anagallis Gardner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enydra radicans (Willd.) Lack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enydra sessilis (SW.) DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enydra virularis Gardner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erechtites hieracifolia (L.) Rafin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erechtites hieracifolius (L.) Raf. ex DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erechtites valerianifolius (Link ex Spreng.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erigeron maximus (D. Don) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupatorium bupleurifolium DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupatorium candolleanum Hook. &amp; Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupatorium subhastatum Hook. &amp; Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupatorium tremulum Hook. &amp; Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eupatorium tweedianum Hook. &amp; Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamochaeta americana (Mill.) Wedd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gnaphalium spicatum Mill. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazielia intermedia (DC.) R. M. King &amp; H. Robins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gymnocoronis spilanthoides DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaegeria hirta (Lag.) Less. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jungia floribunda Less.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lepidaploa chalybaea (Mart. Ex DC.) H. Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lessingianthus glabratus (Less.) H. Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikania congesta DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikania cordifolia (L. f.) Willd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikania micrantha Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mikania periplocifolia Hook. And Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacourina edulis Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picrosia longifolia D. Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pluchea sagittalis (Lam.) Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praxelis sanctopaulensis (B.L. Rob.) R.M. King &amp; H. Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterocaulon balansae  Chodat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richterago radiata (Vell.) Roque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolandra fruticosa (L.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senecio bonariensis Hook.&amp; Arn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senecio erisithalifolius Sch. Bip. Ex Baker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senecio icoglossus DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senecio mattfeldianus Cabr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senecio tweediei Hook. &amp; Arn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonchus oleraceus L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphagneticola trilobata (L.) Pruski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synedrella nodiflora (L.) Gaertn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tilesia baccata (L.f.) Pruski </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichospira verticillata (L.) S.F.Blake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vernonanthura beyrichii (Less) H. Rob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vernonanthura brasiliana (L.) H.Rob. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vernonia scorpioides (Lam) Pers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wedelia alagoensis Baker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wedelia calycina Rich. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impatiens wallerana Hook. F. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begonia cucullata Willd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begonia fischeri Schrank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begonia hirtella Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begonia reniformis Dryand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleonotoma clematis (Kunth) Miers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanaecium pyramidatum (Rich.) L.G.Lohmann </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tynanthus polyanthus (Bureau) Sandwith </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cordia curassavica (Jacq.) Roem. and Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cordia multispicata Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cordia superba Cham. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cordia tetrandra Aubl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euploca procumbens (Mill.) Diane &amp; Hilger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliotropium angiospermum Murray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliotropium elongatum (Lehm.) I.M. Johnst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliotropium indicum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliotropium procumbens Mill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tournefortia bicolor Sw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardamine bonariensis Pers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasturtium officinale R. Br.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmannia australis Malme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmannia capitata (Walter ex J.F.Gmel.) Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burmannia flava Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabomba aquatica Aublet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabomba caroliniana A. Gray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabomba furcata Schult. &amp; Schult.f. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabomba haynesii Wiersema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centropogon cornutus (L.) Druce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia anceps L. f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia aquatica Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia camporum Pohl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia exaltata Pohl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia fistulosa Vell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia nummularioides Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lobelia xalapensis Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pratia hederacea (Cham.) G. Don </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siphocampylus sulfereus Wimmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canna indica L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canna glauca L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canna xgeneralis L.H. Bailey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aneilema umbrosum (Vahl) Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callisia filiformis (M.Martens &amp; Galeotti) D.R.Hunt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelina diffusa Burm.f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelina erecta L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelina nudiflora L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelina obliqua Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commelina schomburgkiana Klotzsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichorisandra hexandra (Aubl.) Kuntze ex Hand.-Mazz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floscopa glabrata (Kunth) Hassk. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tripogandra diuretica (Mart.) Handlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anisea cernua Moric.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aniseia martinicensis(Jacq.) Choisy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cressa truxillensis Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolvulus filipes Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolvulus nummularius (L.) L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evolvulus pohlli Meiss.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea alba L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea aquatica Forssk. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea asaralifolia Poir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea asarifolia (Desr.) Roem. &amp; Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea batatas (L.) Poir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea cairica (L.) Sweet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea carnea Jacq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea cynanchifolia Meisn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea fimbriosepala Choisy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea fistulosa Mart. ex. Choisy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea indivisa (Vell.) Hall.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea philomega (Vell.) House </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea quamoclit L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea setifera Poir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea setosa Ker Gawl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea serpens Meissner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea squamosa Choisy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea subrevoluta Choisy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipomoea wrightii A. Gray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iseia luxurians (Moric.) O’Donell </t>
+    <t>Mauritiella armata (Mart.) Burret </t>
+  </si>
+  <si>
+    <t>Aristolochia macroura Gomes</t>
+  </si>
+  <si>
+    <t>Roullinia montevidensis (Spr.) Malme</t>
+  </si>
+  <si>
+    <t>Acanthospermum australe (Loef.) Kuntze</t>
+  </si>
+  <si>
+    <t>Acanthospermum hispidum DC. </t>
+  </si>
+  <si>
+    <t>Achyrocline alata (Kunth) DC. </t>
+  </si>
+  <si>
+    <t>Acilepdopsis echitifolia (Mart. Ex DC.) H. Rob.</t>
+  </si>
+  <si>
+    <t>Acmella uliginosa (Sw.) Cass.</t>
+  </si>
+  <si>
+    <t>Adenostemma brasilianum (Pers.) Cass.</t>
+  </si>
+  <si>
+    <t>Ageratum conyzoides L.</t>
+  </si>
+  <si>
+    <t>Ambrosia artemisiaefolia L.</t>
+  </si>
+  <si>
+    <t>Aster squamatus (Spreng) Hier.</t>
+  </si>
+  <si>
+    <t>Baccharis microcephala Baker </t>
+  </si>
+  <si>
+    <t>Baccharis penningtonii Heering.</t>
+  </si>
+  <si>
+    <t>Baccharis spicata (Lam.) Baill.</t>
+  </si>
+  <si>
+    <t>Baccharis usteri Heering</t>
+  </si>
+  <si>
+    <t>Baccharidastrum triplinerve (Less.) Cabrera</t>
+  </si>
+  <si>
+    <t>Barrosoa betonicaeformis (DC.) R.M.King &amp; H.Rob.</t>
+  </si>
+  <si>
+    <t>Bidens laevis (L.) B.S.P. </t>
+  </si>
+  <si>
+    <t>Blainvillea dichotoma (Murray) Stewart</t>
+  </si>
+  <si>
+    <t>Centratherum punctatum Cass.</t>
+  </si>
+  <si>
+    <t>Calea marginata S. F. Blake</t>
+  </si>
+  <si>
+    <t>Campuloclinium purpurascens (Sch. Bip.) R.M. King &amp; H. Rob.</t>
+  </si>
+  <si>
+    <t>Chaptalia graminifolia (Dusen) Cabr.</t>
+  </si>
+  <si>
+    <t>Chrysolaena platensis (Spreng.) H. Robins. </t>
+  </si>
+  <si>
+    <t>Clibadium amanii (Balb.) Sch. Bip. ex Baker</t>
+  </si>
+  <si>
+    <t>Conyza bonariensis (L.) Cronquist</t>
+  </si>
+  <si>
+    <t>Conyza sumatrensis (Retz.) E.Walker </t>
+  </si>
+  <si>
+    <t>Cotula coronopifolia L. </t>
+  </si>
+  <si>
+    <t>Delilia biflora (L.) Kuntze </t>
+  </si>
+  <si>
+    <t>Eclipta megapotamica (Spreng.) Sch.Bip. ex S.F.Blake </t>
+  </si>
+  <si>
+    <t>Eclipta prostrata (L.) L.</t>
+  </si>
+  <si>
+    <t>Egletes viscosa (L.) Less. </t>
+  </si>
+  <si>
+    <t>Elephantopus mollis Kunth</t>
+  </si>
+  <si>
+    <t>Emilia coccinea (Sims) G. Don</t>
+  </si>
+  <si>
+    <t>Emilia sonchifolia (L.) DC. ex Wight</t>
+  </si>
+  <si>
+    <t>Enydra anagallis Gardner </t>
+  </si>
+  <si>
+    <t>Enydra radicans (Willd.) Lack.</t>
+  </si>
+  <si>
+    <t>Enydra sessilis (SW.) DC. </t>
+  </si>
+  <si>
+    <t>Enydra virularis Gardner</t>
+  </si>
+  <si>
+    <t>Erechtites hieracifolia (L.) Rafin</t>
+  </si>
+  <si>
+    <t>Erechtites hieracifolius (L.) Raf. ex DC.</t>
+  </si>
+  <si>
+    <t>Erechtites valerianifolius (Link ex Spreng.) DC.</t>
+  </si>
+  <si>
+    <t>Erigeron maximus (D. Don) DC.</t>
+  </si>
+  <si>
+    <t>Eupatorium bupleurifolium DC.</t>
+  </si>
+  <si>
+    <t>Eupatorium candolleanum Hook. &amp; Arn.</t>
+  </si>
+  <si>
+    <t>Eupatorium subhastatum Hook. &amp; Arn.</t>
+  </si>
+  <si>
+    <t>Eupatorium tremulum Hook. &amp; Arn.</t>
+  </si>
+  <si>
+    <t>Eupatorium tweedianum Hook. &amp; Arn.</t>
+  </si>
+  <si>
+    <t>Gamochaeta americana (Mill.) Wedd.</t>
+  </si>
+  <si>
+    <t>Gnaphalium spicatum Mill. </t>
+  </si>
+  <si>
+    <t>Grazielia intermedia (DC.) R. M. King &amp; H. Robins</t>
+  </si>
+  <si>
+    <t>Gymnocoronis spilanthoides DC. </t>
+  </si>
+  <si>
+    <t>Jaegeria hirta (Lag.) Less. </t>
+  </si>
+  <si>
+    <t>Jungia floribunda Less.</t>
+  </si>
+  <si>
+    <t>Lepidaploa chalybaea (Mart. Ex DC.) H. Rob.</t>
+  </si>
+  <si>
+    <t>Lessingianthus glabratus (Less.) H. Rob.</t>
+  </si>
+  <si>
+    <t>Mikania congesta DC. </t>
+  </si>
+  <si>
+    <t>Mikania cordifolia (L. f.) Willd.</t>
+  </si>
+  <si>
+    <t>Mikania micrantha Kunth </t>
+  </si>
+  <si>
+    <t>Mikania periplocifolia Hook. And Arn.</t>
+  </si>
+  <si>
+    <t>Pacourina edulis Aubl. </t>
+  </si>
+  <si>
+    <t>Picrosia longifolia D. Don</t>
+  </si>
+  <si>
+    <t>Pluchea sagittalis (Lam.) Cabrera</t>
+  </si>
+  <si>
+    <t>Praxelis sanctopaulensis (B.L. Rob.) R.M. King &amp; H. Rob.</t>
+  </si>
+  <si>
+    <t>Pterocaulon balansae  Chodat</t>
+  </si>
+  <si>
+    <t>Richterago radiata (Vell.) Roque</t>
+  </si>
+  <si>
+    <t>Rolandra fruticosa (L.) Kuntze</t>
+  </si>
+  <si>
+    <t>Senecio bonariensis Hook.&amp; Arn. </t>
+  </si>
+  <si>
+    <t>Senecio erisithalifolius Sch. Bip. Ex Baker</t>
+  </si>
+  <si>
+    <t>Senecio icoglossus DC.</t>
+  </si>
+  <si>
+    <t>Senecio mattfeldianus Cabr.</t>
+  </si>
+  <si>
+    <t>Senecio tweediei Hook. &amp; Arn. </t>
+  </si>
+  <si>
+    <t>Sonchus oleraceus L. </t>
+  </si>
+  <si>
+    <t>Sphagneticola trilobata (L.) Pruski</t>
+  </si>
+  <si>
+    <t>Synedrella nodiflora (L.) Gaertn.</t>
+  </si>
+  <si>
+    <t>Tilesia baccata (L.f.) Pruski </t>
+  </si>
+  <si>
+    <t>Trichospira verticillata (L.) S.F.Blake</t>
+  </si>
+  <si>
+    <t>Vernonanthura beyrichii (Less) H. Rob.</t>
+  </si>
+  <si>
+    <t>Vernonanthura brasiliana (L.) H.Rob. </t>
+  </si>
+  <si>
+    <t>Vernonia scorpioides (Lam) Pers.</t>
+  </si>
+  <si>
+    <t>Wedelia alagoensis Baker</t>
+  </si>
+  <si>
+    <t>Wedelia calycina Rich. </t>
+  </si>
+  <si>
+    <t>Impatiens wallerana Hook. F. </t>
+  </si>
+  <si>
+    <t>Begonia cucullata Willd.</t>
+  </si>
+  <si>
+    <t>Begonia fischeri Schrank</t>
+  </si>
+  <si>
+    <t>Begonia hirtella Link</t>
+  </si>
+  <si>
+    <t>Begonia reniformis Dryand.</t>
+  </si>
+  <si>
+    <t>Pleonotoma clematis (Kunth) Miers </t>
+  </si>
+  <si>
+    <t>Tanaecium pyramidatum (Rich.) L.G.Lohmann </t>
+  </si>
+  <si>
+    <t>Tynanthus polyanthus (Bureau) Sandwith </t>
+  </si>
+  <si>
+    <t>Cordia curassavica (Jacq.) Roem. and Schult.</t>
+  </si>
+  <si>
+    <t>Cordia multispicata Cham.</t>
+  </si>
+  <si>
+    <t>Cordia superba Cham. </t>
+  </si>
+  <si>
+    <t>Cordia tetrandra Aubl.</t>
+  </si>
+  <si>
+    <t>Euploca procumbens (Mill.) Diane &amp; Hilger</t>
+  </si>
+  <si>
+    <t>Heliotropium angiospermum Murray</t>
+  </si>
+  <si>
+    <t>Heliotropium elongatum (Lehm.) I.M. Johnst.</t>
+  </si>
+  <si>
+    <t>Heliotropium indicum L.</t>
+  </si>
+  <si>
+    <t>Heliotropium procumbens Mill.</t>
+  </si>
+  <si>
+    <t>Tournefortia bicolor Sw.</t>
+  </si>
+  <si>
+    <t>Cardamine bonariensis Pers. </t>
+  </si>
+  <si>
+    <t>Nasturtium officinale R. Br.</t>
+  </si>
+  <si>
+    <t>Burmannia australis Malme</t>
+  </si>
+  <si>
+    <t>Burmannia capitata (Walter ex J.F.Gmel.) Mart. </t>
+  </si>
+  <si>
+    <t>Burmannia flava Mart. </t>
+  </si>
+  <si>
+    <t>Cabomba aquatica Aublet.</t>
+  </si>
+  <si>
+    <t>Cabomba caroliniana A. Gray</t>
+  </si>
+  <si>
+    <t>Cabomba furcata Schult. &amp; Schult.f. </t>
+  </si>
+  <si>
+    <t>Cabomba haynesii Wiersema</t>
+  </si>
+  <si>
+    <t>Centropogon cornutus (L.) Druce</t>
+  </si>
+  <si>
+    <t>Lobelia anceps L. f.</t>
+  </si>
+  <si>
+    <t>Lobelia aquatica Cham.</t>
+  </si>
+  <si>
+    <t>Lobelia camporum Pohl</t>
+  </si>
+  <si>
+    <t>Lobelia exaltata Pohl</t>
+  </si>
+  <si>
+    <t>Lobelia fistulosa Vell.</t>
+  </si>
+  <si>
+    <t>Lobelia nummularioides Cham.</t>
+  </si>
+  <si>
+    <t>Lobelia xalapensis Kunth</t>
+  </si>
+  <si>
+    <t>Pratia hederacea (Cham.) G. Don </t>
+  </si>
+  <si>
+    <t>Siphocampylus sulfereus Wimmer</t>
+  </si>
+  <si>
+    <t>Canna indica L.</t>
+  </si>
+  <si>
+    <t>Canna glauca L. </t>
+  </si>
+  <si>
+    <t>Canna xgeneralis L.H. Bailey</t>
+  </si>
+  <si>
+    <t>Aneilema umbrosum (Vahl) Kunth </t>
+  </si>
+  <si>
+    <t>Callisia filiformis (M.Martens &amp; Galeotti) D.R.Hunt </t>
+  </si>
+  <si>
+    <t>Commelina diffusa Burm.f.</t>
+  </si>
+  <si>
+    <t>Commelina erecta L.</t>
+  </si>
+  <si>
+    <t>Commelina nudiflora L.</t>
+  </si>
+  <si>
+    <t>Commelina obliqua Vahl</t>
+  </si>
+  <si>
+    <t>Commelina schomburgkiana Klotzsch</t>
+  </si>
+  <si>
+    <t>Dichorisandra hexandra (Aubl.) Kuntze ex Hand.-Mazz. </t>
+  </si>
+  <si>
+    <t>Floscopa glabrata (Kunth) Hassk. </t>
+  </si>
+  <si>
+    <t>Tripogandra diuretica (Mart.) Handlos</t>
+  </si>
+  <si>
+    <t>Anisea cernua Moric.</t>
+  </si>
+  <si>
+    <t>Aniseia martinicensis(Jacq.) Choisy </t>
+  </si>
+  <si>
+    <t>Cressa truxillensis Kunth</t>
+  </si>
+  <si>
+    <t>Evolvulus filipes Mart.</t>
+  </si>
+  <si>
+    <t>Evolvulus nummularius (L.) L. </t>
+  </si>
+  <si>
+    <t>Evolvulus pohlli Meiss.</t>
+  </si>
+  <si>
+    <t>Ipomoea alba L.</t>
+  </si>
+  <si>
+    <t>Ipomoea aquatica Forssk. </t>
+  </si>
+  <si>
+    <t>Ipomoea asaralifolia Poir.</t>
+  </si>
+  <si>
+    <t>Ipomoea asarifolia (Desr.) Roem. &amp; Schult.</t>
+  </si>
+  <si>
+    <t>Ipomoea batatas (L.) Poir. </t>
+  </si>
+  <si>
+    <t>Ipomoea cairica (L.) Sweet </t>
+  </si>
+  <si>
+    <t>Ipomoea carnea Jacq.</t>
+  </si>
+  <si>
+    <t>Ipomoea cynanchifolia Meisn. </t>
+  </si>
+  <si>
+    <t>Ipomoea fimbriosepala Choisy</t>
+  </si>
+  <si>
+    <t>Ipomoea fistulosa Mart. ex. Choisy </t>
+  </si>
+  <si>
+    <t>Ipomoea indivisa (Vell.) Hall.</t>
+  </si>
+  <si>
+    <t>Ipomoea philomega (Vell.) House </t>
+  </si>
+  <si>
+    <t>Ipomoea quamoclit L. </t>
+  </si>
+  <si>
+    <t>Ipomoea setifera Poir. </t>
+  </si>
+  <si>
+    <t>Ipomoea setosa Ker Gawl.</t>
+  </si>
+  <si>
+    <t>Ipomoea serpens Meissner</t>
+  </si>
+  <si>
+    <t>Ipomoea squamosa Choisy </t>
+  </si>
+  <si>
+    <t>Ipomoea subrevoluta Choisy</t>
+  </si>
+  <si>
+    <t>Ipomoea wrightii A. Gray</t>
+  </si>
+  <si>
+    <t>Iseia luxurians (Moric.) O’Donell </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Jacquemontia heterantha </t>
     </r>
     <r>
@@ -915,159 +891,151 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Merremia aegyptia (L.) Urb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merremia umbellata (L.) Hallier f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operculina hamiltonii (G.Don) D.F.Austin &amp; Staples </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetralocularia pennellii O’Donell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costus arabicus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costus spirales (Jacq.) Roscoe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crassula peduncularis (Sm.) Meigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclanthera hystrix (Gillies) Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaterium amazonicum Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fevillea trilobata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurania bignoniacea (Poepp. &amp; Endl.) C.Jeffrey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gurania tricuspidata Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luffa operculata (L.) Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momordica charantia L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halodule emarginata Hartog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halodule wrightii Asch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abildgaardia ovata (Burm. f.) Kral </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becquerelia cymosa Brongn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becquerelia muricata Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbostylis capillaris (L.) Kunth ex C.B. Clarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbostylis hirtella (Schrad. ex Schult.) Nees ex Urb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbostylis junciformis (Kunth) C.B.Clarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbostylis juncoides (Vahl) Kük. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbostylis sellowiana (Kunth) Palla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulbostylis truncata (Nees) M.T. Strong </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calyptrocarya longifolia (Rudge) Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carex brasiliensis A. St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carex pseudocyperus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cladium jamaicense Crantz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus aggregatus (Willd.) Endl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus amabilis Vahl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus articulatus L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus aristatus Rottb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus barrosianus Herter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus berroi (C.B. Clarke) Barros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus brevifolius (Rottb.) Hassk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus cayennensis Willd. ex Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus celluloso-reticulatus Boeck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus chalaranthus J.Presl &amp; C.Presl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus compressus L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus cornelii-ostenii Kuk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus corymbosus Rottb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus cuspidatus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus diffusus Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus digitatus Roxb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus distans L. f. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus eragrostis Lam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus esculentus L. </t>
+    <t>Merremia aegyptia (L.) Urb.</t>
+  </si>
+  <si>
+    <t>Merremia umbellata (L.) Hallier f.</t>
+  </si>
+  <si>
+    <t>Operculina hamiltonii (G.Don) D.F.Austin &amp; Staples </t>
+  </si>
+  <si>
+    <t>Tetralocularia pennellii O’Donell </t>
+  </si>
+  <si>
+    <t>Costus arabicus L.</t>
+  </si>
+  <si>
+    <t>Costus spirales (Jacq.) Roscoe </t>
+  </si>
+  <si>
+    <t>Crassula peduncularis (Sm.) Meigen</t>
+  </si>
+  <si>
+    <t>Cyclanthera hystrix (Gillies) Arn.</t>
+  </si>
+  <si>
+    <t>Elaterium amazonicum Mart. </t>
+  </si>
+  <si>
+    <t>Fevillea trilobata L.</t>
+  </si>
+  <si>
+    <t>Gurania bignoniacea (Poepp. &amp; Endl.) C.Jeffrey </t>
+  </si>
+  <si>
+    <t>Gurania tricuspidata Cogn. </t>
+  </si>
+  <si>
+    <t>Luffa operculata (L.) Cogn. </t>
+  </si>
+  <si>
+    <t>Momordica charantia L. </t>
+  </si>
+  <si>
+    <t>Halodule emarginata Hartog</t>
+  </si>
+  <si>
+    <t>Halodule wrightii Asch.</t>
+  </si>
+  <si>
+    <t>Abildgaardia ovata (Burm. f.) Kral </t>
+  </si>
+  <si>
+    <t>Becquerelia cymosa Brongn.</t>
+  </si>
+  <si>
+    <t>Becquerelia muricata Nees</t>
+  </si>
+  <si>
+    <t>Bulbostylis capillaris (L.) Kunth ex C.B. Clarke</t>
+  </si>
+  <si>
+    <t>Bulbostylis hirtella (Schrad. ex Schult.) Nees ex Urb.</t>
+  </si>
+  <si>
+    <t>Bulbostylis junciformis (Kunth) C.B.Clarke</t>
+  </si>
+  <si>
+    <t>Bulbostylis juncoides (Vahl) Kük. </t>
+  </si>
+  <si>
+    <t>Bulbostylis sellowiana (Kunth) Palla</t>
+  </si>
+  <si>
+    <t>Bulbostylis truncata (Nees) M.T. Strong </t>
+  </si>
+  <si>
+    <t>Calyptrocarya longifolia (Rudge) Kunth</t>
+  </si>
+  <si>
+    <t>Carex brasiliensis A. St.-Hil. </t>
+  </si>
+  <si>
+    <t>Carex pseudocyperus L.</t>
+  </si>
+  <si>
+    <t>Cladium jamaicense Crantz </t>
+  </si>
+  <si>
+    <t>Cyperus aggregatus (Willd.) Endl.</t>
+  </si>
+  <si>
+    <t>Cyperus amabilis Vahl </t>
+  </si>
+  <si>
+    <t>Cyperus articulatus L. </t>
+  </si>
+  <si>
+    <t>Cyperus aristatus Rottb.</t>
+  </si>
+  <si>
+    <t>Cyperus barrosianus Herter</t>
+  </si>
+  <si>
+    <t>Cyperus berroi (C.B. Clarke) Barros </t>
+  </si>
+  <si>
+    <t>Cyperus brevifolius (Rottb.) Hassk.</t>
+  </si>
+  <si>
+    <t>Cyperus cayennensis Willd. ex Link</t>
+  </si>
+  <si>
+    <t>Cyperus celluloso-reticulatus Boeck.</t>
+  </si>
+  <si>
+    <t>Cyperus chalaranthus J.Presl &amp; C.Presl </t>
+  </si>
+  <si>
+    <t>Cyperus compressus L. </t>
+  </si>
+  <si>
+    <t>Cyperus cornelii-ostenii Kuk.</t>
+  </si>
+  <si>
+    <t>Cyperus corymbosus Rottb.</t>
+  </si>
+  <si>
+    <t>Cyperus cuspidatus Kunth</t>
+  </si>
+  <si>
+    <t>Cyperus diffusus Vahl</t>
+  </si>
+  <si>
+    <t>Cyperus digitatus Roxb.</t>
+  </si>
+  <si>
+    <t>Cyperus distans L. f. </t>
+  </si>
+  <si>
+    <t>Cyperus eragrostis Lam</t>
+  </si>
+  <si>
+    <t>Cyperus esculentus L. </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Cyperus fistulosus</t>
     </r>
     <r>
@@ -1081,135 +1049,127 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cyperus gardneri Nees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus giganteus Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus haspan L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus hermaphroditus (Jacq.) Standl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus imbricatus Retz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus intricatus Schrad. Ex Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus involucratus Rottb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus iria L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus laetus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus lanceolatus Poir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus laxus Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus ligularis L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus luzulae (L) Retz.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus megapotamicus Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus mundtii (Nees) Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus obtusatus (J. &amp; C. Presl) Mattf. &amp; Kuk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus odoratus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus papyrus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus polystachyus R. Br.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus prolixus Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus reflexus Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus rigens C. Presl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus rotundus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus sesquiflorus (Tor.) Mattf. et Kiik </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus surinamensis Rottb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus uncinulatus Schrad. ex Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyperus virens Michx. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dialium guianense (Aubl.) Sandwith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diplacrum longifolium (Griseb.) C.B. Clarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis acutangula (Roxb.) Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis atropurpurea (Retz.) Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis barrosii Svenson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis bonariensis Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis capillacea Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis debilis Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis elata Boeck. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis elegans (H.B.K.) Roem. &amp; Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis elongata Chapman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis equisetoides (Elliott.) Torr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis filiculmis Kunth</t>
+    <t>Cyperus gardneri Nees </t>
+  </si>
+  <si>
+    <t>Cyperus giganteus Vahl</t>
+  </si>
+  <si>
+    <t>Cyperus haspan L. </t>
+  </si>
+  <si>
+    <t>Cyperus hermaphroditus (Jacq.) Standl.</t>
+  </si>
+  <si>
+    <t>Cyperus imbricatus Retz.</t>
+  </si>
+  <si>
+    <t>Cyperus intricatus Schrad. Ex Schult.</t>
+  </si>
+  <si>
+    <t>Cyperus involucratus Rottb.</t>
+  </si>
+  <si>
+    <t>Cyperus iria L.</t>
+  </si>
+  <si>
+    <t>Cyperus laetus Kunth</t>
+  </si>
+  <si>
+    <t>Cyperus lanceolatus Poir.</t>
+  </si>
+  <si>
+    <t>Cyperus laxus Lam.</t>
+  </si>
+  <si>
+    <t>Cyperus ligularis L. </t>
+  </si>
+  <si>
+    <t>Cyperus luzulae (L) Retz.</t>
+  </si>
+  <si>
+    <t>Cyperus megapotamicus Kunth </t>
+  </si>
+  <si>
+    <t>Cyperus mundtii (Nees) Kunth </t>
+  </si>
+  <si>
+    <t>Cyperus obtusatus (J. &amp; C. Presl) Mattf. &amp; Kuk.</t>
+  </si>
+  <si>
+    <t>Cyperus odoratus L.</t>
+  </si>
+  <si>
+    <t>Cyperus papyrus L.</t>
+  </si>
+  <si>
+    <t>Cyperus polystachyus R. Br.</t>
+  </si>
+  <si>
+    <t>Cyperus prolixus Kunth </t>
+  </si>
+  <si>
+    <t>Cyperus reflexus Vahl</t>
+  </si>
+  <si>
+    <t>Cyperus rigens C. Presl </t>
+  </si>
+  <si>
+    <t>Cyperus rotundus L.</t>
+  </si>
+  <si>
+    <t>Cyperus sesquiflorus (Tor.) Mattf. et Kiik </t>
+  </si>
+  <si>
+    <t>Cyperus surinamensis Rottb.</t>
+  </si>
+  <si>
+    <t>Cyperus uncinulatus Schrad. ex Nees</t>
+  </si>
+  <si>
+    <t>Cyperus virens Michx. </t>
+  </si>
+  <si>
+    <t>Dialium guianense (Aubl.) Sandwith</t>
+  </si>
+  <si>
+    <t>Diplacrum longifolium (Griseb.) C.B. Clarke</t>
+  </si>
+  <si>
+    <t>Eleocharis acutangula (Roxb.) Schult. </t>
+  </si>
+  <si>
+    <t>Eleocharis atropurpurea (Retz.) Kunth </t>
+  </si>
+  <si>
+    <t>Eleocharis barrosii Svenson </t>
+  </si>
+  <si>
+    <t>Eleocharis bonariensis Nees</t>
+  </si>
+  <si>
+    <t>Eleocharis capillacea Kunth </t>
+  </si>
+  <si>
+    <t>Eleocharis debilis Kunth</t>
+  </si>
+  <si>
+    <t>Eleocharis elata Boeck. </t>
+  </si>
+  <si>
+    <t>Eleocharis elegans (H.B.K.) Roem. &amp; Schult. </t>
+  </si>
+  <si>
+    <t>Eleocharis elongata Chapman </t>
+  </si>
+  <si>
+    <t>Eleocharis equisetoides (Elliott.) Torr.</t>
+  </si>
+  <si>
+    <t>Eleocharis filiculmis Kunth</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Eleocharis fistulosa</t>
     </r>
     <r>
@@ -1223,99 +1183,91 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eleocharis flavescens (Poir.) Urban </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis geniculata  (L.) Roem. &amp; Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis interstincta (Vahl) Roem. &amp; Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis maculosa (Vahl) R. Br. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis minarum Boeck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis minima Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis montana (Vahl) Roem. &amp; Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis mutata (L.) Roem. &amp; Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis nana Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis nodulosa (Roth) Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis nudipes (Kunth) Palla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis radicans (Poir) Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis retroflexa (Poir.) Urb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis sellowiana Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis subarticulata (Nees) Boeck. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleocharis umbellata Rottb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis aestivalis (Retz.) Vahl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis autumnalis (L.) Roem. &amp; Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis complanata (Retz.) Link.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis cymosa R.Br. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis dichotoma (L.) Vahl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis diphylla (Reitz) Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis miliacea (L.) Vahl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis spadicea (L.) Vahl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fimbristylis squarrosa Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuirena incompleta Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuirena robusta Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuirena umbellata Rottb.</t>
+    <t>Eleocharis flavescens (Poir.) Urban </t>
+  </si>
+  <si>
+    <t>Eleocharis geniculata  (L.) Roem. &amp; Schult. </t>
+  </si>
+  <si>
+    <t>Eleocharis interstincta (Vahl) Roem. &amp; Schult.</t>
+  </si>
+  <si>
+    <t>Eleocharis maculosa (Vahl) R. Br. </t>
+  </si>
+  <si>
+    <t>Eleocharis minarum Boeck</t>
+  </si>
+  <si>
+    <t>Eleocharis minima Kunth</t>
+  </si>
+  <si>
+    <t>Eleocharis montana (Vahl) Roem. &amp; Schult.</t>
+  </si>
+  <si>
+    <t>Eleocharis mutata (L.) Roem. &amp; Schult. </t>
+  </si>
+  <si>
+    <t>Eleocharis nana Kunth </t>
+  </si>
+  <si>
+    <t>Eleocharis nodulosa (Roth) Schult. </t>
+  </si>
+  <si>
+    <t>Eleocharis nudipes (Kunth) Palla </t>
+  </si>
+  <si>
+    <t>Eleocharis radicans (Poir) Kunth </t>
+  </si>
+  <si>
+    <t>Eleocharis retroflexa (Poir.) Urb. </t>
+  </si>
+  <si>
+    <t>Eleocharis sellowiana Kunth</t>
+  </si>
+  <si>
+    <t>Eleocharis subarticulata (Nees) Boeck. </t>
+  </si>
+  <si>
+    <t>Eleocharis umbellata Rottb.</t>
+  </si>
+  <si>
+    <t>Fimbristylis aestivalis (Retz.) Vahl </t>
+  </si>
+  <si>
+    <t>Fimbristylis autumnalis (L.) Roem. &amp; Schult.</t>
+  </si>
+  <si>
+    <t>Fimbristylis complanata (Retz.) Link.</t>
+  </si>
+  <si>
+    <t>Fimbristylis cymosa R.Br. </t>
+  </si>
+  <si>
+    <t>Fimbristylis dichotoma (L.) Vahl </t>
+  </si>
+  <si>
+    <t>Fimbristylis diphylla (Reitz) Vahl</t>
+  </si>
+  <si>
+    <t>Fimbristylis miliacea (L.) Vahl </t>
+  </si>
+  <si>
+    <t>Fimbristylis spadicea (L.) Vahl </t>
+  </si>
+  <si>
+    <t>Fimbristylis squarrosa Vahl</t>
+  </si>
+  <si>
+    <t>Fuirena incompleta Nees</t>
+  </si>
+  <si>
+    <t>Fuirena robusta Kunth </t>
+  </si>
+  <si>
+    <t>Fuirena umbellata Rottb.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Hyparrhenia rufa </t>
     </r>
     <r>
@@ -1329,159 +1281,151 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Kyllinga odorata Vahl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyllinga pumila Michx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipocarpha humboldtiana Nees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipocarpha micrantha (Vahl) G.C. Tucker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipocarpha salzmanniana Steud. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipocarpha sellowiana Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxycaryum cubense (Poepp. &amp; Kunth) Lye </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pycreus flavescens (L.) P. Beauv. ex Rchb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pycreus macrostachyos (Lam.) J. Raynal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pycreus polystachyos (Rottb.) P.Beauv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora barbata (Vahl) Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora brittonii Gale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora cephalotes (L.) Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora contracta (Nees) J. Raynal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora corymbosa (L.) Britton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora cyperoides Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora gigantea Link.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora holoschoenoides (Rich.) Herter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora marisculus Lindl. &amp; Nees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora nervosa (Vahl) Boeckeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora pubera (Vahl) Boeckeler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora riparia (Nees) Boeck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora schomburgkiana (Boeck.) T. Koyama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora subplumosa C.B. Clarke </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora tenerrima Nees ex Spreng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora tenuis Link </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora trispicata (Nees) Schrad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchospora velutina (Kunth) Boeckeler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schoenoplectus californicus (C.A.Mey) Soják</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scirpus americanus Pers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scirpus californicus (C.A.Mey.) Steud. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scirpus cubensis  Poepp. &amp; Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scirpus giganteus Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scirpus maritimus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scirpus submersus C. Wright </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria bracteata Cav.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria distans Poir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria hirtella SW. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria melaleuca Rchb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria microcarpa Nees ex Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria mitis P.J.Bergius </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria pterota C. Presl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria secans (L.) Urb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scleria soronia (Nees) Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Websteria confervoides (Poir.) S.S. Hooper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dioscorea marginata Griseb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drosera communis A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drosera intermedia Hayne </t>
+    <t>Kyllinga odorata Vahl. </t>
+  </si>
+  <si>
+    <t>Kyllinga pumila Michx.</t>
+  </si>
+  <si>
+    <t>Lipocarpha humboldtiana Nees </t>
+  </si>
+  <si>
+    <t>Lipocarpha micrantha (Vahl) G.C. Tucker</t>
+  </si>
+  <si>
+    <t>Lipocarpha salzmanniana Steud. </t>
+  </si>
+  <si>
+    <t>Lipocarpha sellowiana Kunth</t>
+  </si>
+  <si>
+    <t>Oxycaryum cubense (Poepp. &amp; Kunth) Lye </t>
+  </si>
+  <si>
+    <t>Pycreus flavescens (L.) P. Beauv. ex Rchb.</t>
+  </si>
+  <si>
+    <t>Pycreus macrostachyos (Lam.) J. Raynal</t>
+  </si>
+  <si>
+    <t>Pycreus polystachyos (Rottb.) P.Beauv.</t>
+  </si>
+  <si>
+    <t>Rhynchospora barbata (Vahl) Kunth</t>
+  </si>
+  <si>
+    <t>Rhynchospora brittonii Gale </t>
+  </si>
+  <si>
+    <t>Rhynchospora cephalotes (L.) Vahl</t>
+  </si>
+  <si>
+    <t>Rhynchospora contracta (Nees) J. Raynal </t>
+  </si>
+  <si>
+    <t>Rhynchospora corymbosa (L.) Britton </t>
+  </si>
+  <si>
+    <t>Rhynchospora cyperoides Mart. </t>
+  </si>
+  <si>
+    <t>Rhynchospora gigantea Link.</t>
+  </si>
+  <si>
+    <t>Rhynchospora holoschoenoides (Rich.) Herter</t>
+  </si>
+  <si>
+    <t>Rhynchospora marisculus Lindl. &amp; Nees </t>
+  </si>
+  <si>
+    <t>Rhynchospora nervosa (Vahl) Boeckeler</t>
+  </si>
+  <si>
+    <t>Rhynchospora pubera (Vahl) Boeckeler</t>
+  </si>
+  <si>
+    <t>Rhynchospora riparia (Nees) Boeck.</t>
+  </si>
+  <si>
+    <t>Rhynchospora schomburgkiana (Boeck.) T. Koyama </t>
+  </si>
+  <si>
+    <t>Rhynchospora subplumosa C.B. Clarke </t>
+  </si>
+  <si>
+    <t>Rhynchospora tenerrima Nees ex Spreng.</t>
+  </si>
+  <si>
+    <t>Rhynchospora tenuis Link </t>
+  </si>
+  <si>
+    <t>Rhynchospora trispicata (Nees) Schrad.</t>
+  </si>
+  <si>
+    <t>Rhynchospora velutina (Kunth) Boeckeler </t>
+  </si>
+  <si>
+    <t>Schoenoplectus californicus (C.A.Mey) Soják</t>
+  </si>
+  <si>
+    <t>Scirpus americanus Pers.</t>
+  </si>
+  <si>
+    <t>Scirpus californicus (C.A.Mey.) Steud. </t>
+  </si>
+  <si>
+    <t>Scirpus cubensis  Poepp. &amp; Kunth </t>
+  </si>
+  <si>
+    <t>Scirpus giganteus Kunth </t>
+  </si>
+  <si>
+    <t>Scirpus maritimus L.</t>
+  </si>
+  <si>
+    <t>Scirpus submersus C. Wright </t>
+  </si>
+  <si>
+    <t>Scleria bracteata Cav.</t>
+  </si>
+  <si>
+    <t>Scleria distans Poir.</t>
+  </si>
+  <si>
+    <t>Scleria hirtella SW. </t>
+  </si>
+  <si>
+    <t>Scleria melaleuca Rchb.</t>
+  </si>
+  <si>
+    <t>Scleria microcarpa Nees ex Kunth</t>
+  </si>
+  <si>
+    <t>Scleria mitis P.J.Bergius </t>
+  </si>
+  <si>
+    <t>Scleria pterota C. Presl</t>
+  </si>
+  <si>
+    <t>Scleria secans (L.) Urb. </t>
+  </si>
+  <si>
+    <t>Scleria soronia (Nees) Kunth</t>
+  </si>
+  <si>
+    <t>Websteria confervoides (Poir.) S.S. Hooper</t>
+  </si>
+  <si>
+    <t>Dioscorea marginata Griseb.</t>
+  </si>
+  <si>
+    <t>Drosera communis A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Drosera intermedia Hayne </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Elatine lindbergii </t>
     </r>
     <r>
@@ -1495,27 +1439,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Equisetum giganteum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equisetum hyemale L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agarista chlorantha (Cham.) G. Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaylussacia brasiliensis (Spreng.) Meisn.</t>
+    <t>Equisetum giganteum L.</t>
+  </si>
+  <si>
+    <t>Equisetum hyemale L.</t>
+  </si>
+  <si>
+    <t>Agarista chlorantha (Cham.) G. Don</t>
+  </si>
+  <si>
+    <t>Gaylussacia brasiliensis (Spreng.) Meisn.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Eriocaulon angustifolium</t>
     </r>
     <r>
@@ -1529,27 +1465,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eriocaulon aquatile Korn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriocaulon humboldtii Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriocaulon magnificum Ruhland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriocaulon modestum Kunth </t>
+    <t>Eriocaulon aquatile Korn.</t>
+  </si>
+  <si>
+    <t>Eriocaulon humboldtii Kunth </t>
+  </si>
+  <si>
+    <t>Eriocaulon magnificum Ruhland </t>
+  </si>
+  <si>
+    <t>Eriocaulon modestum Kunth </t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Eriocaulon obtusum </t>
     </r>
     <r>
@@ -1563,606 +1491,598 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eriocaulon setaceum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiothrix pilulifera Ruhl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiothrix rufula  (A. St.-Hil.) Ruhl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paepalanthus bifidus (Schrad.) Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paepalanthus lamarckii Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paepalanthus planifolius (Bong.) Koern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paepalanthus tortilis (Bong.) Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus anomalus (Körn.) Ruhland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus caulescens (Poir.) Ruhland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus chrysanthus (Bong.) Ruhl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus glandulosus Gleason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus gracilis (Bong.) Ruhland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus oblongus (Körn.) Ruhland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syngonanthus xeranthemoides (Bong.) Ruhland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonina fluviatilis Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acalypha arvensis Poepp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acalypha poiretii Spreng. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argythamnia heteropetala (Didr.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astraea lobata (L.) Klotzsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caperonia castaneifolia A. St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caperonia histrix Pax &amp; Hoffm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caperonia palustris (L.) A.St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croton trinitatis Millsp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalechampia scandens L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalechampia tiliifolia Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbia hirta L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbia hyssopifolia L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbia prostrata Aiton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbia thymifolia L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapium glandulatum (Vell.) Pax </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesbania schottiana (M. Arg.) M. Arg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonina fluviatilis Aubl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adesmia latifolia (Spr.) Vogel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene americana L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene ciliata Vog. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene denticulata Rudd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene evenia C. Wright and Sauvalle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene filosa Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene fluminensis Vell. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene indica L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene mollicula L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene montevidensis Vogel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene paniculata Willd. ex Vogel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene rudis Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene scabra G.Don</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene sensitiva Sw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aeschynomene virginica (L.) Britton, Sterns &amp; Poggenb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anadenanthera colubrina (Vell.) Brenan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calopogonium mucunoides Desv. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centrosema brasilianum (L.) Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centrosema pubescens Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamaecrista calycioides (DC. ex Collad.) Greene </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamaecrista diphylla (L.) Greene </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamaecrista hispidula (Vahl) H.S.Irwin &amp; Barneby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamaecrista nictitans (L.) Moench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chamaecrista repens (Vogel) H.S.Irwin &amp; Barneby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clitoria falcata Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clitoria guianensis (Aubl.) Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clitoria laurifolia Poir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaea speciosa (Loisel.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotalaria brevifolia DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotalaria micans Link </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotalaria nitens Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotalaria pallida Aiton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotalaria pilosa Mill. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotalaria sagittalis L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cymbosema roseum Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalbergia ecastophyllum (L.) Taub. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmodium adscendens (Sw.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmodium barbatum (L.) Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmodium incanum (Sw.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmodium tortuosum (Sw.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dioclea grandiflora Mart. ex Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dioclea guianensis Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discolobium leptophyllum Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discolobium psoraliaefolium Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discolobium pulchellum Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriosema simplicifolium (DC.) G. Don </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrina crista-galli L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigofera hirsuta L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigofera lespedezioides Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indigofera sabulicola Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inga affinis DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inga marginata Willd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inga sessilis (Vell.) Mart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inga uruguensis Hook. &amp; Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lonchocarpus sericeus (Poir.) Kunth ex DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrolobium multijugum (DC.) Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macroptilium gracile (Poepp. ex Benth.) Urb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macroptilium lathyroides (L.) Urb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa bimucronata (DC.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa debilis Humb. &amp; Bonpl. ex Willd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa dormiens Humb. &amp; Bonpl. ex Willd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa invisa Mart. ex Colla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa pellita Humb. &amp; Bonpl. ex Willd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa pigra L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa pudica L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mimosa setosa Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neptunia oleracea Lour. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neptunia plena (L.) Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neptunia prostrata (Lam.) Baill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchosia minima (L.) DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna corymbosa (Lam.) Irwin &amp; Barneby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna obtusifolia (L.) H.S.Irwin &amp; Barneby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna occidentalis (L.) Link </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna reticulata (Willd.) H.S. Irwin &amp; Barneby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senna uniflora (Mill.) H.S. Irwin &amp; Barneby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesbania exasperata Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesbania punicea (Cav.) Burkart </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylosanthes angustifolia Vog. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylosanthes gracilis Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylosanthes guianensis (Aubl.) Sw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylosanthes scabra Vogel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylosanthes viscosa (L.) Sw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tephrosia purpurea (L.) Pers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teramnus volubilis Sw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vachellia farnesiana (L.) Wight &amp; Arn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigna juruana (Harms) Verdc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigna lasiocarpa (Mart.ex Benth.) Verdc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigna longifolia (Benth.) Verdc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigna luteola (Jacq.) Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zornia guanipensis Pittier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zornia latifolia Sm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coutoubea ramosa Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coutoubea spicata Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curtia tenuifolia (Aubl.) Knobl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irlbachia alata (Aubl.) Maas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irlbachia purpurascens (Aubl.) Maas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schultesia benthamiana Klotzsch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schultesia brachyptera Cham. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schultesia gracilis Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schultesia guianensis (Aubl.) Malme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schultesia optera Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drymonia coccinea (Aubl.) Wiehler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinningia elatior (Kunth) Chautems </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schiekia orinocensis (Kunth) Meisn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laurembergia tetrandra (Schott) Kanitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myriophyllum aquaticum (Vell.) Verdc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myriophyllum elatinoides Gaud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proserpinaca palustris L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliconia marginata (Griggs) Pittier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heliconia psittacorum L.f. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apalanthe granatensis (Bonpl.) Planch. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egeria densa Planch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egeria najas Planch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elodea canadensis Michx.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halophila decipiens Ostenf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrilla verticillata (L.f.) Royle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limnobium laevigatum (Humb. &amp; Bonpl. ex Willd.) Heine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najas argurta Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najas conferta (A.Braun) A.Braun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najas guadalupensis (Spreng.) Magnus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najas marina L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najas microcarpa K. Schum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najas microdon A. Br.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ottelia brasiliensis (Planch.) Walp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrolea elatior Schott </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrolea spinosa L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypericum brasiliense Choisy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypericum mutilum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vismia cayennensis (Jacq.) Pers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curculigo scorzonerifolia (Lam.) Baker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypoxis decumbens L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cipura paludosa Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisyrinchium micranthum Cav.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisyrinchium vaginatum Spreng. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoetes brasiliensis H.P. Fuchs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoetes ekmanii Weber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus acutus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus bufonius L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus capillaceus Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus densiflorus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus dichotomus Elliot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus dombeyanus J. Gay ex Lah. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus effusus L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus marginatus Rostk. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus microcephalus Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus sellowianus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juncus scirpoides Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilaea scilloides (Poir.) Hauman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triglochin striata Ruiz &amp; Pavon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis atrorubens Poit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis brevipes Poit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis caespitosa A. St.-Hil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis dilatata Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis fasciculata Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis lacustris St-Hil ex Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis lagenaria A. St.-Hil ex Benth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis lantaniifolia Poit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis lappacea Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis lorentziana O. Hoffm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis mutabilis (Rich.) Briq. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis parkeri Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis recurvata Poit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis spicigera Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis suaveolens (L.) Poit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyptis tetracephala Bordig.</t>
+    <t>Eriocaulon setaceum L.</t>
+  </si>
+  <si>
+    <t>Leiothrix pilulifera Ruhl. </t>
+  </si>
+  <si>
+    <t>Leiothrix rufula  (A. St.-Hil.) Ruhl. </t>
+  </si>
+  <si>
+    <t>Paepalanthus bifidus (Schrad.) Kunth </t>
+  </si>
+  <si>
+    <t>Paepalanthus lamarckii Kunth </t>
+  </si>
+  <si>
+    <t>Paepalanthus planifolius (Bong.) Koern.</t>
+  </si>
+  <si>
+    <t>Paepalanthus tortilis (Bong.) Mart.</t>
+  </si>
+  <si>
+    <t>Syngonanthus anomalus (Körn.) Ruhland </t>
+  </si>
+  <si>
+    <t>Syngonanthus caulescens (Poir.) Ruhland </t>
+  </si>
+  <si>
+    <t>Syngonanthus chrysanthus (Bong.) Ruhl.</t>
+  </si>
+  <si>
+    <t>Syngonanthus glandulosus Gleason</t>
+  </si>
+  <si>
+    <t>Syngonanthus gracilis (Bong.) Ruhland</t>
+  </si>
+  <si>
+    <t>Syngonanthus oblongus (Körn.) Ruhland </t>
+  </si>
+  <si>
+    <t>Syngonanthus xeranthemoides (Bong.) Ruhland</t>
+  </si>
+  <si>
+    <t>Tonina fluviatilis Aubl. </t>
+  </si>
+  <si>
+    <t>Acalypha arvensis Poepp. </t>
+  </si>
+  <si>
+    <t>Acalypha poiretii Spreng. </t>
+  </si>
+  <si>
+    <t>Argythamnia heteropetala (Didr.) Kuntze</t>
+  </si>
+  <si>
+    <t>Astraea lobata (L.) Klotzsch</t>
+  </si>
+  <si>
+    <t>Caperonia castaneifolia A. St.-Hil. </t>
+  </si>
+  <si>
+    <t>Caperonia histrix Pax &amp; Hoffm.</t>
+  </si>
+  <si>
+    <t>Caperonia palustris (L.) A.St.-Hil. </t>
+  </si>
+  <si>
+    <t>Croton trinitatis Millsp. </t>
+  </si>
+  <si>
+    <t>Dalechampia scandens L. </t>
+  </si>
+  <si>
+    <t>Dalechampia tiliifolia Lam. </t>
+  </si>
+  <si>
+    <t>Euphorbia hirta L.</t>
+  </si>
+  <si>
+    <t>Euphorbia hyssopifolia L.</t>
+  </si>
+  <si>
+    <t>Euphorbia prostrata Aiton</t>
+  </si>
+  <si>
+    <t>Euphorbia thymifolia L. </t>
+  </si>
+  <si>
+    <t>Sapium glandulatum (Vell.) Pax </t>
+  </si>
+  <si>
+    <t>Sesbania schottiana (M. Arg.) M. Arg.</t>
+  </si>
+  <si>
+    <t>Tonina fluviatilis Aubl.</t>
+  </si>
+  <si>
+    <t>Adesmia latifolia (Spr.) Vogel</t>
+  </si>
+  <si>
+    <t>Aeschynomene americana L. </t>
+  </si>
+  <si>
+    <t>Aeschynomene ciliata Vog. </t>
+  </si>
+  <si>
+    <t>Aeschynomene denticulata Rudd.</t>
+  </si>
+  <si>
+    <t>Aeschynomene evenia C. Wright and Sauvalle</t>
+  </si>
+  <si>
+    <t>Aeschynomene filosa Mart. </t>
+  </si>
+  <si>
+    <t>Aeschynomene fluminensis Vell. </t>
+  </si>
+  <si>
+    <t>Aeschynomene indica L.</t>
+  </si>
+  <si>
+    <t>Aeschynomene mollicula L.</t>
+  </si>
+  <si>
+    <t>Aeschynomene montevidensis Vogel</t>
+  </si>
+  <si>
+    <t>Aeschynomene paniculata Willd. ex Vogel </t>
+  </si>
+  <si>
+    <t>Aeschynomene rudis Benth. </t>
+  </si>
+  <si>
+    <t>Aeschynomene scabra G.Don</t>
+  </si>
+  <si>
+    <t>Aeschynomene sensitiva Sw. </t>
+  </si>
+  <si>
+    <t>Aeschynomene virginica (L.) Britton, Sterns &amp; Poggenb.</t>
+  </si>
+  <si>
+    <t>Anadenanthera colubrina (Vell.) Brenan</t>
+  </si>
+  <si>
+    <t>Calopogonium mucunoides Desv. </t>
+  </si>
+  <si>
+    <t>Centrosema brasilianum (L.) Benth.</t>
+  </si>
+  <si>
+    <t>Centrosema pubescens Benth.</t>
+  </si>
+  <si>
+    <t>Chamaecrista calycioides (DC. ex Collad.) Greene </t>
+  </si>
+  <si>
+    <t>Chamaecrista diphylla (L.) Greene </t>
+  </si>
+  <si>
+    <t>Chamaecrista hispidula (Vahl) H.S.Irwin &amp; Barneby</t>
+  </si>
+  <si>
+    <t>Chamaecrista nictitans (L.) Moench</t>
+  </si>
+  <si>
+    <t>Chamaecrista repens (Vogel) H.S.Irwin &amp; Barneby </t>
+  </si>
+  <si>
+    <t>Clitoria falcata Lam. </t>
+  </si>
+  <si>
+    <t>Clitoria guianensis (Aubl.) Benth. </t>
+  </si>
+  <si>
+    <t>Clitoria laurifolia Poir. </t>
+  </si>
+  <si>
+    <t>Collaea speciosa (Loisel.) DC.</t>
+  </si>
+  <si>
+    <t>Crotalaria brevifolia DC.</t>
+  </si>
+  <si>
+    <t>Crotalaria micans Link </t>
+  </si>
+  <si>
+    <t>Crotalaria nitens Kunth </t>
+  </si>
+  <si>
+    <t>Crotalaria pallida Aiton </t>
+  </si>
+  <si>
+    <t>Crotalaria pilosa Mill. </t>
+  </si>
+  <si>
+    <t>Crotalaria sagittalis L. </t>
+  </si>
+  <si>
+    <t>Cymbosema roseum Benth. </t>
+  </si>
+  <si>
+    <t>Dalbergia ecastophyllum (L.) Taub. </t>
+  </si>
+  <si>
+    <t>Desmodium adscendens (Sw.) DC.</t>
+  </si>
+  <si>
+    <t>Desmodium barbatum (L.) Benth. </t>
+  </si>
+  <si>
+    <t>Desmodium incanum (Sw.) DC.</t>
+  </si>
+  <si>
+    <t>Desmodium tortuosum (Sw.) DC.</t>
+  </si>
+  <si>
+    <t>Dioclea grandiflora Mart. ex Benth.</t>
+  </si>
+  <si>
+    <t>Dioclea guianensis Benth. </t>
+  </si>
+  <si>
+    <t>Discolobium leptophyllum Benth.</t>
+  </si>
+  <si>
+    <t>Discolobium psoraliaefolium Benth. </t>
+  </si>
+  <si>
+    <t>Discolobium pulchellum Benth. </t>
+  </si>
+  <si>
+    <t>Eriosema simplicifolium (DC.) G. Don </t>
+  </si>
+  <si>
+    <t>Erythrina crista-galli L.</t>
+  </si>
+  <si>
+    <t>Indigofera hirsuta L. </t>
+  </si>
+  <si>
+    <t>Indigofera lespedezioides Kunth </t>
+  </si>
+  <si>
+    <t>Indigofera sabulicola Benth.</t>
+  </si>
+  <si>
+    <t>Inga affinis DC.</t>
+  </si>
+  <si>
+    <t>Inga marginata Willd.</t>
+  </si>
+  <si>
+    <t>Inga sessilis (Vell.) Mart.</t>
+  </si>
+  <si>
+    <t>Inga uruguensis Hook. &amp; Arn.</t>
+  </si>
+  <si>
+    <t>Lonchocarpus sericeus (Poir.) Kunth ex DC. </t>
+  </si>
+  <si>
+    <t>Macrolobium multijugum (DC.) Benth. </t>
+  </si>
+  <si>
+    <t>Macroptilium gracile (Poepp. ex Benth.) Urb. </t>
+  </si>
+  <si>
+    <t>Macroptilium lathyroides (L.) Urb.</t>
+  </si>
+  <si>
+    <t>Mimosa bimucronata (DC.) Kuntze</t>
+  </si>
+  <si>
+    <t>Mimosa debilis Humb. &amp; Bonpl. ex Willd. </t>
+  </si>
+  <si>
+    <t>Mimosa dormiens Humb. &amp; Bonpl. ex Willd. </t>
+  </si>
+  <si>
+    <t>Mimosa invisa Mart. ex Colla </t>
+  </si>
+  <si>
+    <t>Mimosa pellita Humb. &amp; Bonpl. ex Willd. </t>
+  </si>
+  <si>
+    <t>Mimosa pigra L.</t>
+  </si>
+  <si>
+    <t>Mimosa pudica L.</t>
+  </si>
+  <si>
+    <t>Mimosa setosa Benth. </t>
+  </si>
+  <si>
+    <t>Neptunia oleracea Lour. </t>
+  </si>
+  <si>
+    <t>Neptunia plena (L.) Benth.</t>
+  </si>
+  <si>
+    <t>Neptunia prostrata (Lam.) Baill.</t>
+  </si>
+  <si>
+    <t>Rhynchosia minima (L.) DC. </t>
+  </si>
+  <si>
+    <t>Senna corymbosa (Lam.) Irwin &amp; Barneby</t>
+  </si>
+  <si>
+    <t>Senna obtusifolia (L.) H.S.Irwin &amp; Barneby</t>
+  </si>
+  <si>
+    <t>Senna occidentalis (L.) Link </t>
+  </si>
+  <si>
+    <t>Senna reticulata (Willd.) H.S. Irwin &amp; Barneby </t>
+  </si>
+  <si>
+    <t>Senna uniflora (Mill.) H.S. Irwin &amp; Barneby </t>
+  </si>
+  <si>
+    <t>Sesbania exasperata Kunth </t>
+  </si>
+  <si>
+    <t>Sesbania punicea (Cav.) Burkart </t>
+  </si>
+  <si>
+    <t>Stylosanthes angustifolia Vog. </t>
+  </si>
+  <si>
+    <t>Stylosanthes gracilis Kunth</t>
+  </si>
+  <si>
+    <t>Stylosanthes guianensis (Aubl.) Sw.</t>
+  </si>
+  <si>
+    <t>Stylosanthes scabra Vogel</t>
+  </si>
+  <si>
+    <t>Stylosanthes viscosa (L.) Sw.</t>
+  </si>
+  <si>
+    <t>Tephrosia purpurea (L.) Pers. </t>
+  </si>
+  <si>
+    <t>Teramnus volubilis Sw. </t>
+  </si>
+  <si>
+    <t>Vachellia farnesiana (L.) Wight &amp; Arn.</t>
+  </si>
+  <si>
+    <t>Vigna juruana (Harms) Verdc. </t>
+  </si>
+  <si>
+    <t>Vigna lasiocarpa (Mart.ex Benth.) Verdc.</t>
+  </si>
+  <si>
+    <t>Vigna longifolia (Benth.) Verdc. </t>
+  </si>
+  <si>
+    <t>Vigna luteola (Jacq.) Benth.</t>
+  </si>
+  <si>
+    <t>Zornia guanipensis Pittier </t>
+  </si>
+  <si>
+    <t>Zornia latifolia Sm. </t>
+  </si>
+  <si>
+    <t>Coutoubea ramosa Aubl. </t>
+  </si>
+  <si>
+    <t>Coutoubea spicata Aubl. </t>
+  </si>
+  <si>
+    <t>Curtia tenuifolia (Aubl.) Knobl. </t>
+  </si>
+  <si>
+    <t>Irlbachia alata (Aubl.) Maas</t>
+  </si>
+  <si>
+    <t>Irlbachia purpurascens (Aubl.) Maas</t>
+  </si>
+  <si>
+    <t>Schultesia benthamiana Klotzsch </t>
+  </si>
+  <si>
+    <t>Schultesia brachyptera Cham. </t>
+  </si>
+  <si>
+    <t>Schultesia gracilis Mart. </t>
+  </si>
+  <si>
+    <t>Schultesia guianensis (Aubl.) Malme</t>
+  </si>
+  <si>
+    <t>Schultesia optera Cham.</t>
+  </si>
+  <si>
+    <t>Drymonia coccinea (Aubl.) Wiehler </t>
+  </si>
+  <si>
+    <t>Sinningia elatior (Kunth) Chautems </t>
+  </si>
+  <si>
+    <t>Schiekia orinocensis (Kunth) Meisn.</t>
+  </si>
+  <si>
+    <t>Laurembergia tetrandra (Schott) Kanitz</t>
+  </si>
+  <si>
+    <t>Myriophyllum aquaticum (Vell.) Verdc.</t>
+  </si>
+  <si>
+    <t>Myriophyllum elatinoides Gaud.</t>
+  </si>
+  <si>
+    <t>Proserpinaca palustris L.</t>
+  </si>
+  <si>
+    <t>Heliconia marginata (Griggs) Pittier</t>
+  </si>
+  <si>
+    <t>Heliconia psittacorum L.f. </t>
+  </si>
+  <si>
+    <t>Apalanthe granatensis (Bonpl.) Planch. </t>
+  </si>
+  <si>
+    <t>Egeria densa Planch.</t>
+  </si>
+  <si>
+    <t>Egeria najas Planch.</t>
+  </si>
+  <si>
+    <t>Elodea canadensis Michx.</t>
+  </si>
+  <si>
+    <t>Halophila decipiens Ostenf.</t>
+  </si>
+  <si>
+    <t>Hydrilla verticillata (L.f.) Royle</t>
+  </si>
+  <si>
+    <t>Limnobium laevigatum (Humb. &amp; Bonpl. ex Willd.) Heine </t>
+  </si>
+  <si>
+    <t>Najas argurta Kunth</t>
+  </si>
+  <si>
+    <t>Najas conferta (A.Braun) A.Braun </t>
+  </si>
+  <si>
+    <t>Najas guadalupensis (Spreng.) Magnus</t>
+  </si>
+  <si>
+    <t>Najas marina L.</t>
+  </si>
+  <si>
+    <t>Najas microcarpa K. Schum.</t>
+  </si>
+  <si>
+    <t>Najas microdon A. Br.</t>
+  </si>
+  <si>
+    <t>Ottelia brasiliensis (Planch.) Walp. </t>
+  </si>
+  <si>
+    <t>Hydrolea elatior Schott </t>
+  </si>
+  <si>
+    <t>Hydrolea spinosa L.</t>
+  </si>
+  <si>
+    <t>Hypericum brasiliense Choisy </t>
+  </si>
+  <si>
+    <t>Hypericum mutilum L.</t>
+  </si>
+  <si>
+    <t>Vismia cayennensis (Jacq.) Pers.</t>
+  </si>
+  <si>
+    <t>Curculigo scorzonerifolia (Lam.) Baker </t>
+  </si>
+  <si>
+    <t>Hypoxis decumbens L.</t>
+  </si>
+  <si>
+    <t>Cipura paludosa Aubl. </t>
+  </si>
+  <si>
+    <t>Sisyrinchium micranthum Cav.</t>
+  </si>
+  <si>
+    <t>Sisyrinchium vaginatum Spreng. </t>
+  </si>
+  <si>
+    <t>Isoetes brasiliensis H.P. Fuchs</t>
+  </si>
+  <si>
+    <t>Isoetes ekmanii Weber</t>
+  </si>
+  <si>
+    <t>Juncus acutus L.</t>
+  </si>
+  <si>
+    <t>Juncus bufonius L. </t>
+  </si>
+  <si>
+    <t>Juncus capillaceus Lam. </t>
+  </si>
+  <si>
+    <t>Juncus densiflorus Kunth</t>
+  </si>
+  <si>
+    <t>Juncus dichotomus Elliot</t>
+  </si>
+  <si>
+    <t>Juncus dombeyanus J. Gay ex Lah. </t>
+  </si>
+  <si>
+    <t>Juncus effusus L. </t>
+  </si>
+  <si>
+    <t>Juncus marginatus Rostk. </t>
+  </si>
+  <si>
+    <t>Juncus microcephalus Kunth </t>
+  </si>
+  <si>
+    <t>Juncus sellowianus Kunth</t>
+  </si>
+  <si>
+    <t>Juncus scirpoides Lam. </t>
+  </si>
+  <si>
+    <t>Lilaea scilloides (Poir.) Hauman </t>
+  </si>
+  <si>
+    <t>Triglochin striata Ruiz &amp; Pavon </t>
+  </si>
+  <si>
+    <t>Hyptis atrorubens Poit.</t>
+  </si>
+  <si>
+    <t>Hyptis brevipes Poit. </t>
+  </si>
+  <si>
+    <t>Hyptis caespitosa A. St.-Hil</t>
+  </si>
+  <si>
+    <t>Hyptis dilatata Benth. </t>
+  </si>
+  <si>
+    <t>Hyptis fasciculata Benth. </t>
+  </si>
+  <si>
+    <t>Hyptis lacustris St-Hil ex Benth.</t>
+  </si>
+  <si>
+    <t>Hyptis lagenaria A. St.-Hil ex Benth</t>
+  </si>
+  <si>
+    <t>Hyptis lantaniifolia Poit. </t>
+  </si>
+  <si>
+    <t>Hyptis lappacea Benth.</t>
+  </si>
+  <si>
+    <t>Hyptis lorentziana O. Hoffm. </t>
+  </si>
+  <si>
+    <t>Hyptis mutabilis (Rich.) Briq. </t>
+  </si>
+  <si>
+    <t>Hyptis parkeri Benth. </t>
+  </si>
+  <si>
+    <t>Hyptis recurvata Poit. </t>
+  </si>
+  <si>
+    <t>Hyptis spicigera Lam. </t>
+  </si>
+  <si>
+    <t>Hyptis suaveolens (L.) Poit.</t>
+  </si>
+  <si>
+    <t>Hyptis tetracephala Bordig.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Hyptis vilis </t>
     </r>
     <r>
@@ -2176,90 +2096,82 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Marsypianthes chamaedrys (Vahl) Kuntze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocimum campechianum Mill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prunella vulgaris L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvia arenaria A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvia scabrida Pohl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scutellaria minor Huds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitex cymosa Bertero ex Spreng. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitex megapotamica (Spreng.) Moldenke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cassytha filiformis L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genlisea filiformis A.St.- Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia adpressa Salzm. ex. A. St. Hil. &amp; Girard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia breviscapa Wright ex Griseb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia cucculata A.St.-Hil. &amp; Girard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia erectiflora   A. St.-Hil. &amp; Girard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia fimbriata Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia foliosa L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia gibba L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia guyanensis A.DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia hydrocarpa Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia inflata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia juncea Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia laciniata A. St.-Hil. and Girard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia laxa St. Hilaire &amp; Girard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia myriocista A.St.-Hil. &amp; Girard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia nana A.St.-Hil. &amp; Girard</t>
+    <t>Marsypianthes chamaedrys (Vahl) Kuntze </t>
+  </si>
+  <si>
+    <t>Ocimum campechianum Mill.</t>
+  </si>
+  <si>
+    <t>Prunella vulgaris L. </t>
+  </si>
+  <si>
+    <t>Salvia arenaria A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Salvia scabrida Pohl</t>
+  </si>
+  <si>
+    <t>Scutellaria minor Huds.</t>
+  </si>
+  <si>
+    <t>Vitex cymosa Bertero ex Spreng. </t>
+  </si>
+  <si>
+    <t>Vitex megapotamica (Spreng.) Moldenke</t>
+  </si>
+  <si>
+    <t>Cassytha filiformis L. </t>
+  </si>
+  <si>
+    <t>Genlisea filiformis A.St.- Hil.</t>
+  </si>
+  <si>
+    <t>Utricularia adpressa Salzm. ex. A. St. Hil. &amp; Girard </t>
+  </si>
+  <si>
+    <t>Utricularia breviscapa Wright ex Griseb.</t>
+  </si>
+  <si>
+    <t>Utricularia cucculata A.St.-Hil. &amp; Girard</t>
+  </si>
+  <si>
+    <t>Utricularia erectiflora   A. St.-Hil. &amp; Girard </t>
+  </si>
+  <si>
+    <t>Utricularia fimbriata Kunth </t>
+  </si>
+  <si>
+    <t>Utricularia foliosa L. </t>
+  </si>
+  <si>
+    <t>Utricularia gibba L. </t>
+  </si>
+  <si>
+    <t>Utricularia guyanensis A.DC.</t>
+  </si>
+  <si>
+    <t>Utricularia hydrocarpa Vahl</t>
+  </si>
+  <si>
+    <t>Utricularia inflata L.</t>
+  </si>
+  <si>
+    <t>Utricularia juncea Vahl</t>
+  </si>
+  <si>
+    <t>Utricularia laciniata A. St.-Hil. and Girard</t>
+  </si>
+  <si>
+    <t>Utricularia laxa St. Hilaire &amp; Girard </t>
+  </si>
+  <si>
+    <t>Utricularia myriocista A.St.-Hil. &amp; Girard</t>
+  </si>
+  <si>
+    <t>Utricularia nana A.St.-Hil. &amp; Girard</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Utricularia neottioides </t>
     </r>
     <r>
@@ -2274,14 +2186,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Utricularia nervosa </t>
     </r>
     <r>
@@ -2295,21 +2199,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Utricularia nigrescens Sylvén</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia olivacea Wright ex. Girard</t>
+    <t>Utricularia nigrescens Sylvén</t>
+  </si>
+  <si>
+    <t>Utricularia olivacea Wright ex. Girard</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Utricularia physoceras </t>
     </r>
     <r>
@@ -2323,228 +2219,220 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Utricularia praelonga A.St.-Hil. &amp; Girard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia poconensis Fromm-Trinta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia pusilla Vahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia reniformis A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia simulans Pilg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia subulata L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia trichophylla Spruce ex. Oliver </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia tricolor  A. St.-Hil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia triloba Benj. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utricularia warmingii Kamiénski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindernia crustacea (L.) F.Muell. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindernia diffusa (L.) Wettst. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindernia microcalyx Pennell and Stehlé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lindernia rotundifolia (L.) Alston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torenia thouarsii (Cham. &amp; Schltdl.) Kuntze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spigelia anthelmia L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammannia auriculata Willd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammannia latifolia L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea antisyphilitica Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea arenarioides A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea campestris Koehne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea carthagenensis (Jacq.) Macbride </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea circaeoides Sm. ex Sims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea fruticosa Spreng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea ingrata Cham. &amp; Schltdl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea melvilla Lindl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea racemosa (L.f.) Spreng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea repens Koehne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuphea sessiliflora A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heimia myrtifolia Cham. &amp; Schltdl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lythrum hyssopifolia L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pleurophora anomala (A. St.-Hil.) Koehne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotala mexicana Schltdl. &amp; Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotala ramosior (L.) Koehne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotala rotundifolia (Roxb.) Koehne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byrsonima intermedia A. Juss.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byttneria genistella Triana &amp; Planch. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byttneria palustris Cristobal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byttneria ramosissima Pohl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byttneria scabra L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corchorus argutus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corchorus hirtus L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helicteres guazumifolia Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus bifurcatus Cav. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus cisplatinus A.St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus dimidiatus Schrank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus diversifolius Jacq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus furcellatus Ders. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus sororius L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiscus striatus Cav.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malachra radiata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melochia arenosa Benth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melochia graminifolia A. St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melochia hirsuta Cav.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melochia simplex A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melochia spicata (L.) Fryxell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monteiroa ptarmicifolia (St.-Hil &amp; Naud.) Krap.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavonia angustifolia Benth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavonia cancellata Cav. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavonia grandiflora A. St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavonia laetevirens R. E. Fr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavonia sessiliflora Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sida acuta Burm. f. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sida anomala A. St. Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sida galheirensis Ulbr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sida rhombifolia L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sida setosa Mart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sida spinosa L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sidastrum multiflorum (Jacq.) Fryxell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triumfetta althaeoides Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urena lobata L.</t>
+    <t>Utricularia praelonga A.St.-Hil. &amp; Girard </t>
+  </si>
+  <si>
+    <t>Utricularia poconensis Fromm-Trinta </t>
+  </si>
+  <si>
+    <t>Utricularia pusilla Vahl</t>
+  </si>
+  <si>
+    <t>Utricularia reniformis A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Utricularia simulans Pilg.</t>
+  </si>
+  <si>
+    <t>Utricularia subulata L. </t>
+  </si>
+  <si>
+    <t>Utricularia trichophylla Spruce ex. Oliver </t>
+  </si>
+  <si>
+    <t>Utricularia tricolor  A. St.-Hil</t>
+  </si>
+  <si>
+    <t>Utricularia triloba Benj. </t>
+  </si>
+  <si>
+    <t>Utricularia warmingii Kamiénski</t>
+  </si>
+  <si>
+    <t>Lindernia crustacea (L.) F.Muell. </t>
+  </si>
+  <si>
+    <t>Lindernia diffusa (L.) Wettst. </t>
+  </si>
+  <si>
+    <t>Lindernia microcalyx Pennell and Stehlé</t>
+  </si>
+  <si>
+    <t>Lindernia rotundifolia (L.) Alston</t>
+  </si>
+  <si>
+    <t>Torenia thouarsii (Cham. &amp; Schltdl.) Kuntze </t>
+  </si>
+  <si>
+    <t>Spigelia anthelmia L.</t>
+  </si>
+  <si>
+    <t>Ammannia auriculata Willd.</t>
+  </si>
+  <si>
+    <t>Ammannia latifolia L. </t>
+  </si>
+  <si>
+    <t>Cuphea antisyphilitica Kunth </t>
+  </si>
+  <si>
+    <t>Cuphea arenarioides A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Cuphea campestris Koehne</t>
+  </si>
+  <si>
+    <t>Cuphea carthagenensis (Jacq.) Macbride </t>
+  </si>
+  <si>
+    <t>Cuphea circaeoides Sm. ex Sims</t>
+  </si>
+  <si>
+    <t>Cuphea fruticosa Spreng.</t>
+  </si>
+  <si>
+    <t>Cuphea ingrata Cham. &amp; Schltdl.</t>
+  </si>
+  <si>
+    <t>Cuphea melvilla Lindl.</t>
+  </si>
+  <si>
+    <t>Cuphea racemosa (L.f.) Spreng</t>
+  </si>
+  <si>
+    <t>Cuphea repens Koehne</t>
+  </si>
+  <si>
+    <t>Cuphea sessiliflora A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Heimia myrtifolia Cham. &amp; Schltdl.</t>
+  </si>
+  <si>
+    <t>Lythrum hyssopifolia L.</t>
+  </si>
+  <si>
+    <t>Pleurophora anomala (A. St.-Hil.) Koehne</t>
+  </si>
+  <si>
+    <t>Rotala mexicana Schltdl. &amp; Cham.</t>
+  </si>
+  <si>
+    <t>Rotala ramosior (L.) Koehne </t>
+  </si>
+  <si>
+    <t>Rotala rotundifolia (Roxb.) Koehne</t>
+  </si>
+  <si>
+    <t>Byrsonima intermedia A. Juss.</t>
+  </si>
+  <si>
+    <t>Byttneria genistella Triana &amp; Planch. </t>
+  </si>
+  <si>
+    <t>Byttneria palustris Cristobal</t>
+  </si>
+  <si>
+    <t>Byttneria ramosissima Pohl</t>
+  </si>
+  <si>
+    <t>Byttneria scabra L.</t>
+  </si>
+  <si>
+    <t>Corchorus argutus Kunth</t>
+  </si>
+  <si>
+    <t>Corchorus hirtus L. </t>
+  </si>
+  <si>
+    <t>Helicteres guazumifolia Kunth </t>
+  </si>
+  <si>
+    <t>Hibiscus bifurcatus Cav. </t>
+  </si>
+  <si>
+    <t>Hibiscus cisplatinus A.St.-Hil.</t>
+  </si>
+  <si>
+    <t>Hibiscus dimidiatus Schrank </t>
+  </si>
+  <si>
+    <t>Hibiscus diversifolius Jacq.</t>
+  </si>
+  <si>
+    <t>Hibiscus furcellatus Ders. </t>
+  </si>
+  <si>
+    <t>Hibiscus sororius L.</t>
+  </si>
+  <si>
+    <t>Hibiscus striatus Cav.</t>
+  </si>
+  <si>
+    <t>Malachra radiata L.</t>
+  </si>
+  <si>
+    <t>Melochia arenosa Benth.</t>
+  </si>
+  <si>
+    <t>Melochia graminifolia A. St.-Hil. </t>
+  </si>
+  <si>
+    <t>Melochia hirsuta Cav.</t>
+  </si>
+  <si>
+    <t>Melochia simplex A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Melochia spicata (L.) Fryxell </t>
+  </si>
+  <si>
+    <t>Monteiroa ptarmicifolia (St.-Hil &amp; Naud.) Krap.</t>
+  </si>
+  <si>
+    <t>Pavonia angustifolia Benth. </t>
+  </si>
+  <si>
+    <t>Pavonia cancellata Cav. </t>
+  </si>
+  <si>
+    <t>Pavonia grandiflora A. St.-Hil. </t>
+  </si>
+  <si>
+    <t>Pavonia laetevirens R. E. Fr.</t>
+  </si>
+  <si>
+    <t>Pavonia sessiliflora Kunth</t>
+  </si>
+  <si>
+    <t>Sida acuta Burm. f. </t>
+  </si>
+  <si>
+    <t>Sida anomala A. St. Hil. </t>
+  </si>
+  <si>
+    <t>Sida galheirensis Ulbr.</t>
+  </si>
+  <si>
+    <t>Sida rhombifolia L.</t>
+  </si>
+  <si>
+    <t>Sida setosa Mart. </t>
+  </si>
+  <si>
+    <t>Sida spinosa L.</t>
+  </si>
+  <si>
+    <t>Sidastrum multiflorum (Jacq.) Fryxell</t>
+  </si>
+  <si>
+    <t>Triumfetta althaeoides Lam.</t>
+  </si>
+  <si>
+    <t>Urena lobata L.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Waltheria americana </t>
     </r>
     <r>
@@ -2558,162 +2446,154 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Waltheria indica L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calathea capitata (Ruiz &amp; Pav.) Lindl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calathea comosa (L. f.) Lindl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calathea lanata Petersen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calathea loeseneri J.F. Macbr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calathea micans (L. Mathieu) Körn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ischnosiphon polyphyllus (Poepp. &amp; Endl.) Körn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalia multiflora Horkel ex Koern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thalia geniculata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayaca fluviatilis Aubl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayaca kunthii Seub.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayaca longipes Mart. ex Seub. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayaca sellowiana Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aciotis acuminifolia (Mart. ex DC.) Triana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aciotis ornata (Miq.) Gleason </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acisanthera alsinaefolia (DC.) Triana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acisanthera divaricarta Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acisanthera fluitans Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acisanthera limnobios (DC.) Triana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acisanthera variabilis (DC.) Triana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambessedesia hilariana (Kunth) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clidemia capitellata (Bonpl.) D. Don </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clidemia hirta D.Don </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comolia villosa (Aubl.) Triana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desmoscelis villosa (Aubl.) Naudin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavoisiera umbricata DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leandra multiplinervis (Naudin) Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maicarea radula (Bonpl.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miconia chamissois Naud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microlepis oleifolia (DC.) Triana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microlicia myrtoidea Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterolepis glomerata (Rottb.) Miq. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterolepis repanda (DC.) Triana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera cordata DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera dichotoma (Desr.) DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera grandiflora (Aubl.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera hispida Naudin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera novemnervia DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera serrulata (L. C. Rich.) DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhynchanthera verbenoides Cham.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina aspera Aubl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina asperior (Cham.) Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina cerastifolia (Naudin) Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina cisplatensis Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina gracilis (Bonpl.) Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina herbacea (DC.) Cogn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina sebastianopolitana (Raddi) Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina semidecandra Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tibouchina trichopoda (DC.) Baill.</t>
+    <t>Waltheria indica L. </t>
+  </si>
+  <si>
+    <t>Calathea capitata (Ruiz &amp; Pav.) Lindl. </t>
+  </si>
+  <si>
+    <t>Calathea comosa (L. f.) Lindl. </t>
+  </si>
+  <si>
+    <t>Calathea lanata Petersen </t>
+  </si>
+  <si>
+    <t>Calathea loeseneri J.F. Macbr. </t>
+  </si>
+  <si>
+    <t>Calathea micans (L. Mathieu) Körn. </t>
+  </si>
+  <si>
+    <t>Ischnosiphon polyphyllus (Poepp. &amp; Endl.) Körn. </t>
+  </si>
+  <si>
+    <t>Thalia multiflora Horkel ex Koern.</t>
+  </si>
+  <si>
+    <t>Thalia geniculata L.</t>
+  </si>
+  <si>
+    <t>Mayaca fluviatilis Aubl.</t>
+  </si>
+  <si>
+    <t>Mayaca kunthii Seub.</t>
+  </si>
+  <si>
+    <t>Mayaca longipes Mart. ex Seub. </t>
+  </si>
+  <si>
+    <t>Mayaca sellowiana Kunth </t>
+  </si>
+  <si>
+    <t>Aciotis acuminifolia (Mart. ex DC.) Triana </t>
+  </si>
+  <si>
+    <t>Aciotis ornata (Miq.) Gleason </t>
+  </si>
+  <si>
+    <t>Acisanthera alsinaefolia (DC.) Triana</t>
+  </si>
+  <si>
+    <t>Acisanthera divaricarta Cogn.</t>
+  </si>
+  <si>
+    <t>Acisanthera fluitans Cogn.</t>
+  </si>
+  <si>
+    <t>Acisanthera limnobios (DC.) Triana </t>
+  </si>
+  <si>
+    <t>Acisanthera variabilis (DC.) Triana</t>
+  </si>
+  <si>
+    <t>Cambessedesia hilariana (Kunth) DC.</t>
+  </si>
+  <si>
+    <t>Clidemia capitellata (Bonpl.) D. Don </t>
+  </si>
+  <si>
+    <t>Clidemia hirta D.Don </t>
+  </si>
+  <si>
+    <t>Comolia villosa (Aubl.) Triana</t>
+  </si>
+  <si>
+    <t>Desmoscelis villosa (Aubl.) Naudin </t>
+  </si>
+  <si>
+    <t>Lavoisiera umbricata DC.</t>
+  </si>
+  <si>
+    <t>Leandra multiplinervis (Naudin) Cogn.</t>
+  </si>
+  <si>
+    <t>Maicarea radula (Bonpl.) DC.</t>
+  </si>
+  <si>
+    <t>Miconia chamissois Naud.</t>
+  </si>
+  <si>
+    <t>Microlepis oleifolia (DC.) Triana</t>
+  </si>
+  <si>
+    <t>Microlicia myrtoidea Cham.</t>
+  </si>
+  <si>
+    <t>Pterolepis glomerata (Rottb.) Miq. </t>
+  </si>
+  <si>
+    <t>Pterolepis repanda (DC.) Triana</t>
+  </si>
+  <si>
+    <t>Rhynchanthera cordata DC.</t>
+  </si>
+  <si>
+    <t>Rhynchanthera dichotoma (Desr.) DC. </t>
+  </si>
+  <si>
+    <t>Rhynchanthera grandiflora (Aubl.) DC.</t>
+  </si>
+  <si>
+    <t>Rhynchanthera hispida Naudin</t>
+  </si>
+  <si>
+    <t>Rhynchanthera novemnervia DC. </t>
+  </si>
+  <si>
+    <t>Rhynchanthera serrulata (L. C. Rich.) DC. </t>
+  </si>
+  <si>
+    <t>Rhynchanthera verbenoides Cham.</t>
+  </si>
+  <si>
+    <t>Tibouchina aspera Aubl.</t>
+  </si>
+  <si>
+    <t>Tibouchina asperior (Cham.) Cogn. </t>
+  </si>
+  <si>
+    <t>Tibouchina cerastifolia (Naudin) Cogn. </t>
+  </si>
+  <si>
+    <t>Tibouchina cisplatensis Cogn. </t>
+  </si>
+  <si>
+    <t>Tibouchina gracilis (Bonpl.) Cogn. </t>
+  </si>
+  <si>
+    <t>Tibouchina herbacea (DC.) Cogn. </t>
+  </si>
+  <si>
+    <t>Tibouchina sebastianopolitana (Raddi) Cogn.</t>
+  </si>
+  <si>
+    <t>Tibouchina semidecandra Cogn.</t>
+  </si>
+  <si>
+    <t>Tibouchina trichopoda (DC.) Baill.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Tibouchina urceolaris </t>
     </r>
     <r>
@@ -2727,345 +2607,337 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cissampelos andromorpha DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cissampelos glaberrima A. St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odontocarya arifolia Barneby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odontocarya tamoides (DC.) Miers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphoides grayana (Griseb.) Kuntze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphoides humboldtiana (Kunth) Kuntze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphoides indica (L.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glinus radiatus (Ruiz &amp; Pav.) Rohr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mollugo verticillata L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psidium acutangulum DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psidium cattleianum Sabine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea alba  L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea amazonum Mart. &amp; Zucc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea ampla (Salisb.) DC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea belophylla Trickett </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea caerulea Savigny </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea capensis Thunb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea gardneriana Planch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea jamesoniana Planch. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea lasiophylla Mart. &amp; Zucc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea lingulata Wiersema </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea lotus L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea mexicana Zucc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea odorata Aiton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea oxypetala Planch. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea prolifera Wiersema </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea pulchella DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea rubra Roxb. Ex. Salisb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nymphaea rudgeana G.Mey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria amazonica (Poepp.) J.E. Sowerby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauvagesia erecta L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauvagesia racemosa A. St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauvagesia rubiginosa A.St.-Hil. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauvagesia sprengelii A.St.-Hil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia affinis (DC.) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia caparosa (Cambess.) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia decurrens Walter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia densiflora (Micheli) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia elegans (Cambess.) Hara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia erecta (L.) H.Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia filiformis (Micheli) Ramamoorthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia grandiflora (Michx.) Greuter &amp; Burdet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia helminthorrhiza (Mart.) H. Hara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia hexapetala (Hook. And Arn.) Zardini et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia hyssopifolia (G.Don) Exell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia inclinata (L.f.) M. Gómez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia irwinii T.P. Ramamoorthy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia lagunae (Morong) H. Hara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia leptocarpa (Nutt.) H.Hara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia linifolia Poir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia longifolia (DC.) Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia major (Micheli) Ramam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia multinervia (Hook. &amp; Arn.) Ramamoorthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia nervosa (Poir.) H.Hara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia octovalvis (Jacq.) P.H.Raven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia peploides (Kunth) P.H.Raven </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia peruviana (L.) Hover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia rigida (Miq.) Sandwith </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia sedoides (Humb. &amp; Bonpl.) H.Hara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia sericea (Camb.) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia suffruticosa (L.) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia tomentosa (Cambess.) H.Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia torulosa (Arn.) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludwigia uruguayensis (Camb.) H. Hara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anacheilium alagoense (Pabst) Pabst, Moutinho ex A.V. Pinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleistes gracilis (Barb. Rodr.) Schltr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyrtopodium paludicolum Hoehne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epidendrum dendrobioides Thumb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrodes pumila (Cogn.) Pabst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eulophia alta (L.) Fawc. &amp; Rendle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria aricaensis Hoehne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria brachyphyton Schultr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria bractescens Lindl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria graciliscarpa B. Rodr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria inconspicua Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria johannensis Barb. Rodr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria nabucoi Ruschi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria nuda Lindl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria parviflora Lindl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria pratensis (Lindl.) Rchb. f.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria repens Nutt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria riedelii Cogn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habenaria vaupellii Rchb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buchnera palustris (Aubl.) Spreng. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buchnera rosea Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melasma melampyroides (Rich.) Pennell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vellosiella dracocephaloides (Vell.) Baill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxalis barrelieri L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passiflora foetida L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passiflora vespertilio L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piriqueta cistoides (L.) Griseb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piriqueta duarteana (A. St.-Hil., A. Juss. &amp; Cambess.) Urb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piriqueta racemosa (Jacq.) Sweet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turnera scabra Millsp. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesamum indicum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyllanthus fluitans Benth. ex Müll. Arg. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyllanthus hyssopifolioloides H. B. K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyllanthus niruri L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyllanthus sellowianus M. Arg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phyllanthus stipulatus (Raf.) G.L.Webster </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytolacca thyrsiflora Fenzl ex J. A. Schmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piper caldense C.DC. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piper fuligineum Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achetaria ocymoides (Cham. &amp; Schltdl.) Wettst. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelonia gardneri Hook. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa aquatica Aubl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa arenaria Loefgr. &amp; Edwall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa egensis (Poepp.) Pennell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa lanigera Wettst.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa monnieri (L.) Wettst.</t>
+    <t>Cissampelos andromorpha DC. </t>
+  </si>
+  <si>
+    <t>Cissampelos glaberrima A. St.-Hil. </t>
+  </si>
+  <si>
+    <t>Odontocarya arifolia Barneby </t>
+  </si>
+  <si>
+    <t>Odontocarya tamoides (DC.) Miers </t>
+  </si>
+  <si>
+    <t>Nymphoides grayana (Griseb.) Kuntze </t>
+  </si>
+  <si>
+    <t>Nymphoides humboldtiana (Kunth) Kuntze </t>
+  </si>
+  <si>
+    <t>Nymphoides indica (L.) Kuntze</t>
+  </si>
+  <si>
+    <t>Glinus radiatus (Ruiz &amp; Pav.) Rohr.</t>
+  </si>
+  <si>
+    <t>Mollugo verticillata L.</t>
+  </si>
+  <si>
+    <t>Psidium acutangulum DC. </t>
+  </si>
+  <si>
+    <t>Psidium cattleianum Sabine </t>
+  </si>
+  <si>
+    <t>Nymphaea alba  L. </t>
+  </si>
+  <si>
+    <t>Nymphaea amazonum Mart. &amp; Zucc.</t>
+  </si>
+  <si>
+    <t>Nymphaea ampla (Salisb.) DC.</t>
+  </si>
+  <si>
+    <t>Nymphaea belophylla Trickett </t>
+  </si>
+  <si>
+    <t>Nymphaea caerulea Savigny </t>
+  </si>
+  <si>
+    <t>Nymphaea capensis Thunb.</t>
+  </si>
+  <si>
+    <t>Nymphaea gardneriana Planch.</t>
+  </si>
+  <si>
+    <t>Nymphaea jamesoniana Planch. </t>
+  </si>
+  <si>
+    <t>Nymphaea lasiophylla Mart. &amp; Zucc. </t>
+  </si>
+  <si>
+    <t>Nymphaea lingulata Wiersema </t>
+  </si>
+  <si>
+    <t>Nymphaea lotus L.</t>
+  </si>
+  <si>
+    <t>Nymphaea mexicana Zucc.</t>
+  </si>
+  <si>
+    <t>Nymphaea odorata Aiton</t>
+  </si>
+  <si>
+    <t>Nymphaea oxypetala Planch. </t>
+  </si>
+  <si>
+    <t>Nymphaea prolifera Wiersema </t>
+  </si>
+  <si>
+    <t>Nymphaea pulchella DC. </t>
+  </si>
+  <si>
+    <t>Nymphaea rubra Roxb. Ex. Salisb</t>
+  </si>
+  <si>
+    <t>Nymphaea rudgeana G.Mey</t>
+  </si>
+  <si>
+    <t>Victoria amazonica (Poepp.) J.E. Sowerby </t>
+  </si>
+  <si>
+    <t>Sauvagesia erecta L. </t>
+  </si>
+  <si>
+    <t>Sauvagesia racemosa A. St.-Hil.</t>
+  </si>
+  <si>
+    <t>Sauvagesia rubiginosa A.St.-Hil. </t>
+  </si>
+  <si>
+    <t>Sauvagesia sprengelii A.St.-Hil.</t>
+  </si>
+  <si>
+    <t>Ludwigia affinis (DC.) H. Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia caparosa (Cambess.) H. Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia decurrens Walter </t>
+  </si>
+  <si>
+    <t>Ludwigia densiflora (Micheli) H. Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia elegans (Cambess.) Hara</t>
+  </si>
+  <si>
+    <t>Ludwigia erecta (L.) H.Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia filiformis (Micheli) Ramamoorthy</t>
+  </si>
+  <si>
+    <t>Ludwigia grandiflora (Michx.) Greuter &amp; Burdet</t>
+  </si>
+  <si>
+    <t>Ludwigia helminthorrhiza (Mart.) H. Hara</t>
+  </si>
+  <si>
+    <t>Ludwigia hexapetala (Hook. And Arn.) Zardini et al.</t>
+  </si>
+  <si>
+    <t>Ludwigia hyssopifolia (G.Don) Exell</t>
+  </si>
+  <si>
+    <t>Ludwigia inclinata (L.f.) M. Gómez</t>
+  </si>
+  <si>
+    <t>Ludwigia irwinii T.P. Ramamoorthy </t>
+  </si>
+  <si>
+    <t>Ludwigia lagunae (Morong) H. Hara</t>
+  </si>
+  <si>
+    <t>Ludwigia leptocarpa (Nutt.) H.Hara</t>
+  </si>
+  <si>
+    <t>Ludwigia linifolia Poir.</t>
+  </si>
+  <si>
+    <t>Ludwigia longifolia (DC.) Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia major (Micheli) Ramam.</t>
+  </si>
+  <si>
+    <t>Ludwigia multinervia (Hook. &amp; Arn.) Ramamoorthy</t>
+  </si>
+  <si>
+    <t>Ludwigia nervosa (Poir.) H.Hara</t>
+  </si>
+  <si>
+    <t>Ludwigia octovalvis (Jacq.) P.H.Raven</t>
+  </si>
+  <si>
+    <t>Ludwigia peploides (Kunth) P.H.Raven </t>
+  </si>
+  <si>
+    <t>Ludwigia peruviana (L.) Hover</t>
+  </si>
+  <si>
+    <t>Ludwigia rigida (Miq.) Sandwith </t>
+  </si>
+  <si>
+    <t>Ludwigia sedoides (Humb. &amp; Bonpl.) H.Hara</t>
+  </si>
+  <si>
+    <t>Ludwigia sericea (Camb.) H. Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia suffruticosa (L.) H. Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia tomentosa (Cambess.) H.Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia torulosa (Arn.) H. Hara </t>
+  </si>
+  <si>
+    <t>Ludwigia uruguayensis (Camb.) H. Hara </t>
+  </si>
+  <si>
+    <t>Anacheilium alagoense (Pabst) Pabst, Moutinho ex A.V. Pinto</t>
+  </si>
+  <si>
+    <t>Cleistes gracilis (Barb. Rodr.) Schltr.</t>
+  </si>
+  <si>
+    <t>Cyrtopodium paludicolum Hoehne</t>
+  </si>
+  <si>
+    <t>Epidendrum dendrobioides Thumb.</t>
+  </si>
+  <si>
+    <t>Erythrodes pumila (Cogn.) Pabst</t>
+  </si>
+  <si>
+    <t>Eulophia alta (L.) Fawc. &amp; Rendle </t>
+  </si>
+  <si>
+    <t>Habenaria aricaensis Hoehne </t>
+  </si>
+  <si>
+    <t>Habenaria brachyphyton Schultr. </t>
+  </si>
+  <si>
+    <t>Habenaria bractescens Lindl.</t>
+  </si>
+  <si>
+    <t>Habenaria graciliscarpa B. Rodr.</t>
+  </si>
+  <si>
+    <t>Habenaria inconspicua Cogn.</t>
+  </si>
+  <si>
+    <t>Habenaria johannensis Barb. Rodr.</t>
+  </si>
+  <si>
+    <t>Habenaria nabucoi Ruschi</t>
+  </si>
+  <si>
+    <t>Habenaria nuda Lindl.</t>
+  </si>
+  <si>
+    <t>Habenaria parviflora Lindl. </t>
+  </si>
+  <si>
+    <t>Habenaria pratensis (Lindl.) Rchb. f.</t>
+  </si>
+  <si>
+    <t>Habenaria repens Nutt. </t>
+  </si>
+  <si>
+    <t>Habenaria riedelii Cogn.</t>
+  </si>
+  <si>
+    <t>Habenaria vaupellii Rchb. </t>
+  </si>
+  <si>
+    <t>Buchnera palustris (Aubl.) Spreng. </t>
+  </si>
+  <si>
+    <t>Buchnera rosea Kunth </t>
+  </si>
+  <si>
+    <t>Melasma melampyroides (Rich.) Pennell </t>
+  </si>
+  <si>
+    <t>Vellosiella dracocephaloides (Vell.) Baill.</t>
+  </si>
+  <si>
+    <t>Oxalis barrelieri L. </t>
+  </si>
+  <si>
+    <t>Passiflora foetida L.</t>
+  </si>
+  <si>
+    <t>Passiflora vespertilio L. </t>
+  </si>
+  <si>
+    <t>Piriqueta cistoides (L.) Griseb. </t>
+  </si>
+  <si>
+    <t>Piriqueta duarteana (A. St.-Hil., A. Juss. &amp; Cambess.) Urb. </t>
+  </si>
+  <si>
+    <t>Piriqueta racemosa (Jacq.) Sweet</t>
+  </si>
+  <si>
+    <t>Turnera scabra Millsp. </t>
+  </si>
+  <si>
+    <t>Sesamum indicum L.</t>
+  </si>
+  <si>
+    <t>Phyllanthus fluitans Benth. ex Müll. Arg. </t>
+  </si>
+  <si>
+    <t>Phyllanthus hyssopifolioloides H. B. K.</t>
+  </si>
+  <si>
+    <t>Phyllanthus niruri L.</t>
+  </si>
+  <si>
+    <t>Phyllanthus sellowianus M. Arg.</t>
+  </si>
+  <si>
+    <t>Phyllanthus stipulatus (Raf.) G.L.Webster </t>
+  </si>
+  <si>
+    <t>Phytolacca thyrsiflora Fenzl ex J. A. Schmidt</t>
+  </si>
+  <si>
+    <t>Piper caldense C.DC. </t>
+  </si>
+  <si>
+    <t>Piper fuligineum Kunth</t>
+  </si>
+  <si>
+    <t>Achetaria ocymoides (Cham. &amp; Schltdl.) Wettst. </t>
+  </si>
+  <si>
+    <t>Angelonia gardneri Hook. </t>
+  </si>
+  <si>
+    <t>Bacopa aquatica Aubl.</t>
+  </si>
+  <si>
+    <t>Bacopa arenaria Loefgr. &amp; Edwall </t>
+  </si>
+  <si>
+    <t>Bacopa egensis (Poepp.) Pennell</t>
+  </si>
+  <si>
+    <t>Bacopa lanigera Wettst.</t>
+  </si>
+  <si>
+    <t>Bacopa monnieri (L.) Wettst.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Bacopa rotundifolia</t>
     </r>
     <r>
@@ -3079,520 +2951,520 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Bacopa salzmannii Wettst. ex Edwall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa serpylloides (Cham. And Schltdl.) Angely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacopa stricta (Schrad.) Edwall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bcopa reflexa (Benth.) Edwal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callitriche deflexa  A. Braun ex Hegelm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callitriche rimosa Fassett </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conobea aquatica Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gratiola peruviana L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecardonia procumbens (Mill.) Small </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecardonia serpylloides (Cham. &amp; Schltdl.) Pennell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micranthemum umbrosum (J.F. Gmel.) S.F. Blake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantago australis Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoparia dulcis L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scoparia montevidensis (Kuntze) R.E. Fr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stemodia durantifolia (L.) Sw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stemodia maritima L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stemodia pratensis (Aubl.) C.C. Cowan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limonium brasiliense (Boiss.) O. Kze.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acroceras zizanioides (Kunth) Dandy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrostis palustris Huds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andropogon bicornis L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andropogon leucostachyus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andropogon selloanus (Hack.) Hack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andropogon virgatus Desv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthephora hermaphrodita (L.) Kuntze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axonopus brasiliensis (Spreng.) Kuhlm.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axonopus leptostachyus (Flüggé) Hitchc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axonopus purpusii (Mez) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambusa trinii Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brachiaria brizantha (Hochst. Ex A. Rich.) Stapf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brachiaria decumbens (Stapf) R.D. Webster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brachiaria mutica (Forssk.) Stapf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brachiaria plantaginea (Link) Hitchc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenchrus echinatus L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenchrus purpureus (Schumach.) Morrone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloris barbata Sw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloris exilis Renvoize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coix lacryma-jobi L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynodon dactylon (L.) Pers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dactyloctenium aegyptium (L.) Willd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digitaria ciliaris (Retz.) Koeler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digitaria horizontalis Willd. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digitaria violascens Link </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinebra scabra (Nees) P.M. Peterson &amp; N. Snow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinochloa crusgalli (L.) P.Beauv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinochloa crus-pavonis (Kunth) Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinochloa polystachya (Kunth) Hitchc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echinochloa colona (L.) Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleusine indica (L.) Gaertn. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis acutiflora (Kunth) Nees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis bahiensis (Schrad. ex Schult.) Schult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis ciliaris (L.) R.Br.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis hypnoides (Lam.) Britton, Sterns &amp; Poggenb. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis japonica (Thunb.) Trin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis pilosa (L.) P. Beauv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eragrostis tenella (L.) P. Beauv. ex Roem. &amp; Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriochloa distachya Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriochloa punctata (L.) Desv. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriochrysis cayennensis P.Beauv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynerium sagittatum (Aubl.) P. Beauv. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heleochloa schoenoides (L.) Host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homolepis aturensis (Kunth) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homolepis isocalycia (G. Mey.) Chase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymenachne donacifolia (Raddi) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymenachne amplexicaulis (Rudge) Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypoginum virgatum (Desv) Dandy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperata brasiliensis Trin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperata tenuis Hack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isachne polygonoides (Lam.) Döll </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ischaemum guianense Kunth ex Hack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ischaemum minus J.Presl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasiacis procerrima (Hack.) Hitchc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leersia hexandra Sw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptochloa fascicularis (Lam.) A. Gray </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptochloa virgata (L.) P.Beauv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptocoryphium lanatum (HBK) Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luziola bahiensis (Steud.) Hitchc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luziola brasiliana Moric.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luziola fragilis Swallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luziola peruviana Juss. ex J.F. Gurel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luziola spruceana Benth. ex Döll </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luziola subintegra Swallen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megathyrsus maximus (Jacq.) B.K.Simon &amp; S.W.L.Jacobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesosetum loliiforme (Hochst. ex Steud.) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olyra ecaudata Döll </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olyra longifolia Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryza glumaepatula Steud. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryza grandiglumis (Döll) Prod. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryza latifolia Desv. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryza sativa L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otachyrium succisum (Swallen) Send. &amp; Soderstr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otachyrium versicolor (Döll) Henrard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum aquaticum Poir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum boliviense Hack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum dichotomiflorum Michx. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum elephantipes Nees ex Trin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum grande Hitchc. &amp; Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum grumosum Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum helobium Wez ex Henrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum laxum Sw.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum maximum Jacq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum mertensii Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum milleflorum Hitchc. And Chase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum parvifolium Lam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum pernambuncense (Spreng.) Mez ex Pilg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum prionitis Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum repens L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum rivulare Trin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum sabulorum Lam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panicum schwackeanum Mez. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paratheria prostrata Griseb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pariana campestris Aubl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalidium paludivagum (Hitchc.&amp; Chase) Parodi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalidium geminatum (Forssk.) Stapf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum acuminatum Raddi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum boscianum Flüggé </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum conjugatum P.J. Bergius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum conspersum Schrad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum coryphaeum Trin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum densum Poir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum denticulatum Trin. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum distichum L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum fasciculatum Willd. ex Flüggé </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum glaucescens Hack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum hydrophyllum Henr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum ligulare Nees </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum melanospermum Desv. ex Poir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum millegrana Schrad. ex Schult. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum morichalense Davidse, Zuloaga &amp; Filgueiras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum orbiculatum Poir. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum pulchellum Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum pumilum Nees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum repens P.J. Bergius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum trichophyllum Henrard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum vaginatum Sw. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum virgatum L. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paspalum wrightii Hitchc. &amp; Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pennisetum purpureum Schum </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poidium calotheca (Trin.) Matthei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polypogon elongatus Kunth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raddiella esenbeckii (Steud.) Calderón &amp; Soderstr. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhytachne rottboellioides Desv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimarochloa aberrans (Döll) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimarochloa acuta (Flüggé) Hitchc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reimarochloa brasiliensis (Spreng.) Hitchc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rugoloa hylaeica (Mez) Zuloaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rugoloa pilosa (Sw.) Zuloaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rugoloa polygonata (Schrad.) Zuloaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacciolepis striata (L.) Nash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacciolepis vilvoides (Trin.) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacciolepis myuros (Lam.) Chase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spartina alterniflora Lois. Et Deslong.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spartina densiflora Brongn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setaria pauciflora Linden ex Herrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setaria parviflora (Poir.) Kerguélen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorghastrum setosum (Griseb.) Hitchc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorghum bicolor (Desv.) de Wet &amp; J.R.Harlan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporobolus virginicus (L.) Kunth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sporobolus indicus (L.) R.Br.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steinchisma laxa (Sw.) Zuloaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steinchisma laxum (Sw.) Zuloaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steinchisma decipiens (Nees ex Trin.) W.V.Br. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephostachys mertensii (Roth) Zuloaga &amp; Morrone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichanthecium cyanenscens (Nees ex Trin.) Zuloaga &amp; Morrone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichanthecium micranthum (Kunth) Zuloaga &amp; Morrone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichanthecium nervosum (Lam.) Zuloaga &amp; Morrone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichanthecium parvifolium (Lam.) Zuloaga &amp; Morrone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichanthecium pyrularium (Hitchc. &amp; Chase) Zuloaga &amp; Morrone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urochloa humidicola (Rendle) Morrone &amp; Zuloaga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urochloa plantaginea (Link) R. D. Webster </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urochloa subquadripara (Trin.) R.D. Webster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zizaniopsis bonariensis (Bal. &amp; Poit.) Speg.</t>
+    <t>Bacopa salzmannii Wettst. ex Edwall</t>
+  </si>
+  <si>
+    <t>Bacopa serpylloides (Cham. And Schltdl.) Angely</t>
+  </si>
+  <si>
+    <t>Bacopa stricta (Schrad.) Edwall</t>
+  </si>
+  <si>
+    <t>Bcopa reflexa (Benth.) Edwal</t>
+  </si>
+  <si>
+    <t>Callitriche deflexa  A. Braun ex Hegelm. </t>
+  </si>
+  <si>
+    <t>Callitriche rimosa Fassett </t>
+  </si>
+  <si>
+    <t>Conobea aquatica Aubl. </t>
+  </si>
+  <si>
+    <t>Gratiola peruviana L. </t>
+  </si>
+  <si>
+    <t>Mecardonia procumbens (Mill.) Small </t>
+  </si>
+  <si>
+    <t>Mecardonia serpylloides (Cham. &amp; Schltdl.) Pennell</t>
+  </si>
+  <si>
+    <t>Micranthemum umbrosum (J.F. Gmel.) S.F. Blake</t>
+  </si>
+  <si>
+    <t>Plantago australis Lam.</t>
+  </si>
+  <si>
+    <t>Scoparia dulcis L.</t>
+  </si>
+  <si>
+    <t>Scoparia montevidensis (Kuntze) R.E. Fr.</t>
+  </si>
+  <si>
+    <t>Stemodia durantifolia (L.) Sw.</t>
+  </si>
+  <si>
+    <t>Stemodia maritima L. </t>
+  </si>
+  <si>
+    <t>Stemodia pratensis (Aubl.) C.C. Cowan</t>
+  </si>
+  <si>
+    <t>Limonium brasiliense (Boiss.) O. Kze.</t>
+  </si>
+  <si>
+    <t>Acroceras zizanioides (Kunth) Dandy</t>
+  </si>
+  <si>
+    <t>Agrostis palustris Huds.</t>
+  </si>
+  <si>
+    <t>Andropogon bicornis L.</t>
+  </si>
+  <si>
+    <t>Andropogon leucostachyus Kunth</t>
+  </si>
+  <si>
+    <t>Andropogon selloanus (Hack.) Hack. </t>
+  </si>
+  <si>
+    <t>Andropogon virgatus Desv.</t>
+  </si>
+  <si>
+    <t>Anthephora hermaphrodita (L.) Kuntze</t>
+  </si>
+  <si>
+    <t>Axonopus brasiliensis (Spreng.) Kuhlm.</t>
+  </si>
+  <si>
+    <t>Axonopus leptostachyus (Flüggé) Hitchc. </t>
+  </si>
+  <si>
+    <t>Axonopus purpusii (Mez) Chase </t>
+  </si>
+  <si>
+    <t>Bambusa trinii Nees</t>
+  </si>
+  <si>
+    <t>Brachiaria brizantha (Hochst. Ex A. Rich.) Stapf</t>
+  </si>
+  <si>
+    <t>Brachiaria decumbens (Stapf) R.D. Webster</t>
+  </si>
+  <si>
+    <t>Brachiaria mutica (Forssk.) Stapf </t>
+  </si>
+  <si>
+    <t>Brachiaria plantaginea (Link) Hitchc. </t>
+  </si>
+  <si>
+    <t>Cenchrus echinatus L. </t>
+  </si>
+  <si>
+    <t>Cenchrus purpureus (Schumach.) Morrone </t>
+  </si>
+  <si>
+    <t>Chloris barbata Sw. </t>
+  </si>
+  <si>
+    <t>Chloris exilis Renvoize</t>
+  </si>
+  <si>
+    <t>Coix lacryma-jobi L. </t>
+  </si>
+  <si>
+    <t>Cynodon dactylon (L.) Pers. </t>
+  </si>
+  <si>
+    <t>Dactyloctenium aegyptium (L.) Willd </t>
+  </si>
+  <si>
+    <t>Digitaria ciliaris (Retz.) Koeler </t>
+  </si>
+  <si>
+    <t>Digitaria horizontalis Willd. </t>
+  </si>
+  <si>
+    <t>Digitaria violascens Link </t>
+  </si>
+  <si>
+    <t>Dinebra scabra (Nees) P.M. Peterson &amp; N. Snow </t>
+  </si>
+  <si>
+    <t>Echinochloa crusgalli (L.) P.Beauv.</t>
+  </si>
+  <si>
+    <t>Echinochloa crus-pavonis (Kunth) Schult.</t>
+  </si>
+  <si>
+    <t>Echinochloa polystachya (Kunth) Hitchc.</t>
+  </si>
+  <si>
+    <t>Echinochloa colona (L.) Link</t>
+  </si>
+  <si>
+    <t>Eleusine indica (L.) Gaertn. </t>
+  </si>
+  <si>
+    <t>Eragrostis acutiflora (Kunth) Nees </t>
+  </si>
+  <si>
+    <t>Eragrostis bahiensis (Schrad. ex Schult.) Schult.</t>
+  </si>
+  <si>
+    <t>Eragrostis ciliaris (L.) R.Br.</t>
+  </si>
+  <si>
+    <t>Eragrostis hypnoides (Lam.) Britton, Sterns &amp; Poggenb. </t>
+  </si>
+  <si>
+    <t>Eragrostis japonica (Thunb.) Trin. </t>
+  </si>
+  <si>
+    <t>Eragrostis pilosa (L.) P. Beauv.</t>
+  </si>
+  <si>
+    <t>Eragrostis tenella (L.) P. Beauv. ex Roem. &amp; Schult. </t>
+  </si>
+  <si>
+    <t>Eriochloa distachya Kunth </t>
+  </si>
+  <si>
+    <t>Eriochloa punctata (L.) Desv. </t>
+  </si>
+  <si>
+    <t>Eriochrysis cayennensis P.Beauv.</t>
+  </si>
+  <si>
+    <t>Gynerium sagittatum (Aubl.) P. Beauv. </t>
+  </si>
+  <si>
+    <t>Heleochloa schoenoides (L.) Host</t>
+  </si>
+  <si>
+    <t>Homolepis aturensis (Kunth) Chase </t>
+  </si>
+  <si>
+    <t>Homolepis isocalycia (G. Mey.) Chase</t>
+  </si>
+  <si>
+    <t>Hymenachne donacifolia (Raddi) Chase </t>
+  </si>
+  <si>
+    <t>Hymenachne amplexicaulis (Rudge) Nees</t>
+  </si>
+  <si>
+    <t>Hypoginum virgatum (Desv) Dandy </t>
+  </si>
+  <si>
+    <t>Imperata brasiliensis Trin. </t>
+  </si>
+  <si>
+    <t>Imperata tenuis Hack.</t>
+  </si>
+  <si>
+    <t>Isachne polygonoides (Lam.) Döll </t>
+  </si>
+  <si>
+    <t>Ischaemum guianense Kunth ex Hack. </t>
+  </si>
+  <si>
+    <t>Ischaemum minus J.Presl </t>
+  </si>
+  <si>
+    <t>Lasiacis procerrima (Hack.) Hitchc. </t>
+  </si>
+  <si>
+    <t>Leersia hexandra Sw.</t>
+  </si>
+  <si>
+    <t>Leptochloa fascicularis (Lam.) A. Gray </t>
+  </si>
+  <si>
+    <t>Leptochloa virgata (L.) P.Beauv.</t>
+  </si>
+  <si>
+    <t>Leptocoryphium lanatum (HBK) Nees</t>
+  </si>
+  <si>
+    <t>Luziola bahiensis (Steud.) Hitchc.</t>
+  </si>
+  <si>
+    <t>Luziola brasiliana Moric.</t>
+  </si>
+  <si>
+    <t>Luziola fragilis Swallen</t>
+  </si>
+  <si>
+    <t>Luziola peruviana Juss. ex J.F. Gurel </t>
+  </si>
+  <si>
+    <t>Luziola spruceana Benth. ex Döll </t>
+  </si>
+  <si>
+    <t>Luziola subintegra Swallen </t>
+  </si>
+  <si>
+    <t>Megathyrsus maximus (Jacq.) B.K.Simon &amp; S.W.L.Jacobs</t>
+  </si>
+  <si>
+    <t>Mesosetum loliiforme (Hochst. ex Steud.) Chase </t>
+  </si>
+  <si>
+    <t>Olyra ecaudata Döll </t>
+  </si>
+  <si>
+    <t>Olyra longifolia Kunth </t>
+  </si>
+  <si>
+    <t>Oryza glumaepatula Steud. </t>
+  </si>
+  <si>
+    <t>Oryza grandiglumis (Döll) Prod. </t>
+  </si>
+  <si>
+    <t>Oryza latifolia Desv. </t>
+  </si>
+  <si>
+    <t>Oryza sativa L.</t>
+  </si>
+  <si>
+    <t>Otachyrium succisum (Swallen) Send. &amp; Soderstr. </t>
+  </si>
+  <si>
+    <t>Otachyrium versicolor (Döll) Henrard</t>
+  </si>
+  <si>
+    <t>Panicum aquaticum Poir.</t>
+  </si>
+  <si>
+    <t>Panicum boliviense Hack.</t>
+  </si>
+  <si>
+    <t>Panicum dichotomiflorum Michx. </t>
+  </si>
+  <si>
+    <t>Panicum elephantipes Nees ex Trin. </t>
+  </si>
+  <si>
+    <t>Panicum grande Hitchc. &amp; Chase </t>
+  </si>
+  <si>
+    <t>Panicum grumosum Nees</t>
+  </si>
+  <si>
+    <t>Panicum helobium Wez ex Henrad</t>
+  </si>
+  <si>
+    <t>Panicum laxum Sw.</t>
+  </si>
+  <si>
+    <t>Panicum maximum Jacq.</t>
+  </si>
+  <si>
+    <t>Panicum mertensii Roth</t>
+  </si>
+  <si>
+    <t>Panicum milleflorum Hitchc. And Chase</t>
+  </si>
+  <si>
+    <t>Panicum parvifolium Lam. </t>
+  </si>
+  <si>
+    <t>Panicum pernambuncense (Spreng.) Mez ex Pilg.</t>
+  </si>
+  <si>
+    <t>Panicum prionitis Nees</t>
+  </si>
+  <si>
+    <t>Panicum repens L.</t>
+  </si>
+  <si>
+    <t>Panicum rivulare Trin.</t>
+  </si>
+  <si>
+    <t>Panicum sabulorum Lam.</t>
+  </si>
+  <si>
+    <t>Panicum schwackeanum Mez. </t>
+  </si>
+  <si>
+    <t>Paratheria prostrata Griseb.</t>
+  </si>
+  <si>
+    <t>Pariana campestris Aubl. </t>
+  </si>
+  <si>
+    <t>Paspalidium paludivagum (Hitchc.&amp; Chase) Parodi</t>
+  </si>
+  <si>
+    <t>Paspalidium geminatum (Forssk.) Stapf </t>
+  </si>
+  <si>
+    <t>Paspalum acuminatum Raddi</t>
+  </si>
+  <si>
+    <t>Paspalum boscianum Flüggé </t>
+  </si>
+  <si>
+    <t>Paspalum conjugatum P.J. Bergius</t>
+  </si>
+  <si>
+    <t>Paspalum conspersum Schrad.</t>
+  </si>
+  <si>
+    <t>Paspalum coryphaeum Trin. </t>
+  </si>
+  <si>
+    <t>Paspalum densum Poir. </t>
+  </si>
+  <si>
+    <t>Paspalum denticulatum Trin. </t>
+  </si>
+  <si>
+    <t>Paspalum distichum L.</t>
+  </si>
+  <si>
+    <t>Paspalum fasciculatum Willd. ex Flüggé </t>
+  </si>
+  <si>
+    <t>Paspalum glaucescens Hack. </t>
+  </si>
+  <si>
+    <t>Paspalum hydrophyllum Henr.</t>
+  </si>
+  <si>
+    <t>Paspalum ligulare Nees </t>
+  </si>
+  <si>
+    <t>Paspalum melanospermum Desv. ex Poir. </t>
+  </si>
+  <si>
+    <t>Paspalum millegrana Schrad. ex Schult. </t>
+  </si>
+  <si>
+    <t>Paspalum morichalense Davidse, Zuloaga &amp; Filgueiras</t>
+  </si>
+  <si>
+    <t>Paspalum orbiculatum Poir. </t>
+  </si>
+  <si>
+    <t>Paspalum pulchellum Kunth </t>
+  </si>
+  <si>
+    <t>Paspalum pumilum Nees</t>
+  </si>
+  <si>
+    <t>Paspalum repens P.J. Bergius</t>
+  </si>
+  <si>
+    <t>Paspalum trichophyllum Henrard </t>
+  </si>
+  <si>
+    <t>Paspalum vaginatum Sw. </t>
+  </si>
+  <si>
+    <t>Paspalum virgatum L. </t>
+  </si>
+  <si>
+    <t>Paspalum wrightii Hitchc. &amp; Chase </t>
+  </si>
+  <si>
+    <t>Pennisetum purpureum Schum </t>
+  </si>
+  <si>
+    <t>Poidium calotheca (Trin.) Matthei</t>
+  </si>
+  <si>
+    <t>Polypogon elongatus Kunth</t>
+  </si>
+  <si>
+    <t>Raddiella esenbeckii (Steud.) Calderón &amp; Soderstr. </t>
+  </si>
+  <si>
+    <t>Rhytachne rottboellioides Desv.</t>
+  </si>
+  <si>
+    <t>Reimarochloa aberrans (Döll) Chase </t>
+  </si>
+  <si>
+    <t>Reimarochloa acuta (Flüggé) Hitchc. </t>
+  </si>
+  <si>
+    <t>Reimarochloa brasiliensis (Spreng.) Hitchc. </t>
+  </si>
+  <si>
+    <t>Rugoloa hylaeica (Mez) Zuloaga </t>
+  </si>
+  <si>
+    <t>Rugoloa pilosa (Sw.) Zuloaga </t>
+  </si>
+  <si>
+    <t>Rugoloa polygonata (Schrad.) Zuloaga </t>
+  </si>
+  <si>
+    <t>Sacciolepis striata (L.) Nash</t>
+  </si>
+  <si>
+    <t>Sacciolepis vilvoides (Trin.) Chase </t>
+  </si>
+  <si>
+    <t>Sacciolepis myuros (Lam.) Chase </t>
+  </si>
+  <si>
+    <t>Spartina alterniflora Lois. Et Deslong.</t>
+  </si>
+  <si>
+    <t>Spartina densiflora Brongn.</t>
+  </si>
+  <si>
+    <t>Setaria pauciflora Linden ex Herrm</t>
+  </si>
+  <si>
+    <t>Setaria parviflora (Poir.) Kerguélen</t>
+  </si>
+  <si>
+    <t>Sorghastrum setosum (Griseb.) Hitchc. </t>
+  </si>
+  <si>
+    <t>Sorghum bicolor (Desv.) de Wet &amp; J.R.Harlan </t>
+  </si>
+  <si>
+    <t>Sporobolus virginicus (L.) Kunth </t>
+  </si>
+  <si>
+    <t>Sporobolus indicus (L.) R.Br.</t>
+  </si>
+  <si>
+    <t>Steinchisma laxa (Sw.) Zuloaga</t>
+  </si>
+  <si>
+    <t>Steinchisma laxum (Sw.) Zuloaga </t>
+  </si>
+  <si>
+    <t>Steinchisma decipiens (Nees ex Trin.) W.V.Br. </t>
+  </si>
+  <si>
+    <t>Stephostachys mertensii (Roth) Zuloaga &amp; Morrone </t>
+  </si>
+  <si>
+    <t>Trichanthecium cyanenscens (Nees ex Trin.) Zuloaga &amp; Morrone</t>
+  </si>
+  <si>
+    <t>Trichanthecium micranthum (Kunth) Zuloaga &amp; Morrone </t>
+  </si>
+  <si>
+    <t>Trichanthecium nervosum (Lam.) Zuloaga &amp; Morrone </t>
+  </si>
+  <si>
+    <t>Trichanthecium parvifolium (Lam.) Zuloaga &amp; Morrone </t>
+  </si>
+  <si>
+    <t>Trichanthecium pyrularium (Hitchc. &amp; Chase) Zuloaga &amp; Morrone </t>
+  </si>
+  <si>
+    <t>Urochloa humidicola (Rendle) Morrone &amp; Zuloaga </t>
+  </si>
+  <si>
+    <t>Urochloa plantaginea (Link) R. D. Webster </t>
+  </si>
+  <si>
+    <t>Urochloa subquadripara (Trin.) R.D. Webster</t>
+  </si>
+  <si>
+    <t>Zizaniopsis bonariensis (Bal. &amp; Poit.) Speg.</t>
   </si>
 </sst>
 </file>
@@ -3600,7 +3472,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -3712,17 +3584,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1096"/>
+  <dimension ref="A1:A1095"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1030" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="2" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="56.2793522267207"/>
+    <col collapsed="false" hidden="false" max="1022" min="2" style="0" width="8.53441295546559"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4340,13 +4212,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5140,13 +5012,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
+    <row r="284" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="s">
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5385,13 +5257,13 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
+    <row r="333" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="s">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5590,13 +5462,13 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
+    <row r="374" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5735,13 +5607,13 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1" t="s">
+    <row r="403" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5980,13 +5852,13 @@
         <v>450</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="1" t="s">
+    <row r="452" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="2" t="s">
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6005,13 +5877,13 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="1" t="s">
+    <row r="457" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="2" t="s">
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6030,13 +5902,13 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="1" t="s">
+    <row r="462" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="2" t="s">
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7020,13 +6892,13 @@
         <v>658</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1" t="s">
+    <row r="660" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="2" t="s">
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="s">
         <v>660</v>
       </c>
     </row>
@@ -7150,18 +7022,18 @@
         <v>684</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="1" t="s">
+    <row r="686" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="2" t="s">
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="s">
         <v>687</v>
       </c>
     </row>
@@ -7170,18 +7042,18 @@
         <v>688</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="1" t="s">
+    <row r="690" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="2" t="s">
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="s">
         <v>691</v>
       </c>
     </row>
@@ -7530,13 +7402,13 @@
         <v>760</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="1" t="s">
+    <row r="762" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="2" t="s">
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="1" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7780,13 +7652,13 @@
         <v>810</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="1" t="s">
+    <row r="812" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="2" t="s">
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="1" t="s">
         <v>812</v>
       </c>
     </row>
@@ -8335,13 +8207,13 @@
         <v>921</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="1" t="s">
+    <row r="923" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="2" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="2" t="s">
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="1" t="s">
         <v>923</v>
       </c>
     </row>
@@ -9200,15 +9072,10 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
